--- a/Data_Prep_ABM/Skeleton_Updated_lessthan100MWh_100%PV.xlsx
+++ b/Data_Prep_ABM/Skeleton_Updated_lessthan100MWh_100%PV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iA\OneDrive - ETHZ\Thesis\PM\Data_Prep_ABM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iA\OneDrive - ETHZ\master_thesis\Data_Prep_ABM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{7B866601-359C-4723-B374-42F55BD10FCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{6D7FB50E-94A3-4997-8568-D7E9B67F2F03}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{7B866601-359C-4723-B374-42F55BD10FCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{86F74050-5475-415E-98C2-73E1F0B28F6C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{7DA8773F-4DBA-4C26-8490-B5E981B4535D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{7DA8773F-4DBA-4C26-8490-B5E981B4535D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4803,7 +4803,7 @@
   <dimension ref="A1:P717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J724" sqref="J724"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4881,7 +4881,7 @@
         <v>11</v>
       </c>
       <c r="H2">
-        <f>IF(E2=$D$2,INT(G2/2.23)+F2,F2)</f>
+        <f>IF(E2="Residential",INT(G2/2.23)+F2,F2)</f>
         <v>1</v>
       </c>
       <c r="J2">
@@ -4932,8 +4932,8 @@
         <v>207</v>
       </c>
       <c r="H3">
-        <f>IF(E3=$D$2,INT(G3/2.23)+F3,F3)</f>
-        <v>1</v>
+        <f t="shared" ref="H3:H66" si="0">IF(E3="Residential",INT(G3/2.23)+F3,F3)</f>
+        <v>93</v>
       </c>
       <c r="J3">
         <v>28.395</v>
@@ -4983,8 +4983,8 @@
         <v>22</v>
       </c>
       <c r="H4">
-        <f>IF(E4=$D$2,INT(G4/2.23)+F4,F4)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>46.198</v>
@@ -5034,8 +5034,8 @@
         <v>38</v>
       </c>
       <c r="H5">
-        <f>IF(E5=$D$2,INT(G5/2.23)+F5,F5)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="J5">
         <v>78.978999999999999</v>
@@ -5085,8 +5085,8 @@
         <v>39</v>
       </c>
       <c r="H6">
-        <f>IF(E6=$D$2,INT(G6/2.23)+F6,F6)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="J6">
         <v>81.123999999999995</v>
@@ -5136,8 +5136,8 @@
         <v>38</v>
       </c>
       <c r="H7">
-        <f>IF(E7=$D$2,INT(G7/2.23)+F7,F7)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="J7">
         <v>78.451999999999998</v>
@@ -5187,7 +5187,7 @@
         <v>184</v>
       </c>
       <c r="H8">
-        <f>IF(E8=$D$2,INT(G8/2.23)+F8,F8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J8">
@@ -5238,7 +5238,7 @@
         <v>260</v>
       </c>
       <c r="H9">
-        <f>IF(E9=$D$2,INT(G9/2.23)+F9,F9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J9">
@@ -5289,7 +5289,7 @@
         <v>311</v>
       </c>
       <c r="H10">
-        <f>IF(E10=$D$2,INT(G10/2.23)+F10,F10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J10">
@@ -5340,7 +5340,7 @@
         <v>19</v>
       </c>
       <c r="H11">
-        <f>IF(E11=$D$2,INT(G11/2.23)+F11,F11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J11">
@@ -5390,8 +5390,8 @@
       <c r="G12" s="1">
         <v>110</v>
       </c>
-      <c r="H12" s="1">
-        <f>IF(E12=$D$2,INT(G12/2.23)+F12,F12)</f>
+      <c r="H12">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J12" s="1">
@@ -5442,7 +5442,7 @@
         <v>95</v>
       </c>
       <c r="H13">
-        <f>IF(E13=$D$2,INT(G13/2.23)+F13,F13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J13">
@@ -5493,7 +5493,7 @@
         <v>62</v>
       </c>
       <c r="H14">
-        <f>IF(E14=$D$2,INT(G14/2.23)+F14,F14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J14">
@@ -5544,8 +5544,8 @@
         <v>61</v>
       </c>
       <c r="H15">
-        <f>IF(E15=$D$2,INT(G15/2.23)+F15,F15)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="J15">
         <v>34.558</v>
@@ -5595,7 +5595,7 @@
         <v>192</v>
       </c>
       <c r="H16">
-        <f>IF(E16=$D$2,INT(G16/2.23)+F16,F16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J16">
@@ -5646,7 +5646,7 @@
         <v>520</v>
       </c>
       <c r="H17">
-        <f>IF(E17=$D$2,INT(G17/2.23)+F17,F17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J17">
@@ -5697,8 +5697,8 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <f>IF(E18=$D$2,INT(G18/2.23)+F18,F18)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>19.53</v>
@@ -5748,8 +5748,8 @@
         <v>618</v>
       </c>
       <c r="H19">
-        <f>IF(E19=$D$2,INT(G19/2.23)+F19,F19)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>278</v>
       </c>
       <c r="J19">
         <v>91.417000000000002</v>
@@ -5799,8 +5799,8 @@
         <v>150</v>
       </c>
       <c r="H20">
-        <f>IF(E20=$D$2,INT(G20/2.23)+F20,F20)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="J20">
         <v>47.749000000000002</v>
@@ -5850,7 +5850,7 @@
         <v>223</v>
       </c>
       <c r="H21">
-        <f>IF(E21=$D$2,INT(G21/2.23)+F21,F21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J21">
@@ -5901,8 +5901,8 @@
         <v>36</v>
       </c>
       <c r="H22">
-        <f>IF(E22=$D$2,INT(G22/2.23)+F22,F22)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="J22">
         <v>75.650999999999996</v>
@@ -5952,8 +5952,8 @@
         <v>43</v>
       </c>
       <c r="H23">
-        <f>IF(E23=$D$2,INT(G23/2.23)+F23,F23)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="J23">
         <v>89.006</v>
@@ -6003,8 +6003,8 @@
         <v>27</v>
       </c>
       <c r="H24">
-        <f>IF(E24=$D$2,INT(G24/2.23)+F24,F24)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="J24">
         <v>56.936</v>
@@ -6054,8 +6054,8 @@
         <v>40</v>
       </c>
       <c r="H25">
-        <f>IF(E25=$D$2,INT(G25/2.23)+F25,F25)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="J25">
         <v>82.971999999999994</v>
@@ -6105,8 +6105,8 @@
         <v>38</v>
       </c>
       <c r="H26">
-        <f>IF(E26=$D$2,INT(G26/2.23)+F26,F26)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="J26">
         <v>80.47</v>
@@ -6156,8 +6156,8 @@
         <v>38</v>
       </c>
       <c r="H27">
-        <f>IF(E27=$D$2,INT(G27/2.23)+F27,F27)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="J27">
         <v>80.823999999999998</v>
@@ -6207,8 +6207,8 @@
         <v>30</v>
       </c>
       <c r="H28">
-        <f>IF(E28=$D$2,INT(G28/2.23)+F28,F28)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="J28">
         <v>62.304000000000002</v>
@@ -6258,8 +6258,8 @@
         <v>52</v>
       </c>
       <c r="H29">
-        <f>IF(E29=$D$2,INT(G29/2.23)+F29,F29)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="J29">
         <v>63.707000000000001</v>
@@ -6309,7 +6309,7 @@
         <v>71</v>
       </c>
       <c r="H30">
-        <f>IF(E30=$D$2,INT(G30/2.23)+F30,F30)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J30">
@@ -6360,7 +6360,7 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <f>IF(E31=$D$2,INT(G31/2.23)+F31,F31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J31">
@@ -6411,8 +6411,8 @@
         <v>37</v>
       </c>
       <c r="H32">
-        <f>IF(E32=$D$2,INT(G32/2.23)+F32,F32)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="J32">
         <v>77.92</v>
@@ -6462,8 +6462,8 @@
         <v>34</v>
       </c>
       <c r="H33">
-        <f>IF(E33=$D$2,INT(G33/2.23)+F33,F33)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="J33">
         <v>70.228999999999999</v>
@@ -6513,8 +6513,8 @@
         <v>26</v>
       </c>
       <c r="H34">
-        <f>IF(E34=$D$2,INT(G34/2.23)+F34,F34)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="J34">
         <v>53.624000000000002</v>
@@ -6564,8 +6564,8 @@
         <v>62</v>
       </c>
       <c r="H35">
-        <f>IF(E35=$D$2,INT(G35/2.23)+F35,F35)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="J35">
         <v>8.69</v>
@@ -6615,8 +6615,8 @@
         <v>103</v>
       </c>
       <c r="H36">
-        <f>IF(E36=$D$2,INT(G36/2.23)+F36,F36)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="J36">
         <v>59.893000000000001</v>
@@ -6666,7 +6666,7 @@
         <v>605</v>
       </c>
       <c r="H37">
-        <f>IF(E37=$D$2,INT(G37/2.23)+F37,F37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J37">
@@ -6717,7 +6717,7 @@
         <v>542</v>
       </c>
       <c r="H38">
-        <f>IF(E38=$D$2,INT(G38/2.23)+F38,F38)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J38">
@@ -6768,7 +6768,7 @@
         <v>329</v>
       </c>
       <c r="H39">
-        <f>IF(E39=$D$2,INT(G39/2.23)+F39,F39)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J39">
@@ -6819,7 +6819,7 @@
         <v>963</v>
       </c>
       <c r="H40">
-        <f>IF(E40=$D$2,INT(G40/2.23)+F40,F40)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J40">
@@ -6870,8 +6870,8 @@
         <v>33</v>
       </c>
       <c r="H41">
-        <f>IF(E41=$D$2,INT(G41/2.23)+F41,F41)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J41">
         <v>68.308000000000007</v>
@@ -6921,7 +6921,7 @@
         <v>76</v>
       </c>
       <c r="H42">
-        <f>IF(E42=$D$2,INT(G42/2.23)+F42,F42)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J42">
@@ -6972,7 +6972,7 @@
         <v>128</v>
       </c>
       <c r="H43">
-        <f>IF(E43=$D$2,INT(G43/2.23)+F43,F43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J43">
@@ -7023,7 +7023,7 @@
         <v>15</v>
       </c>
       <c r="H44">
-        <f>IF(E44=$D$2,INT(G44/2.23)+F44,F44)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J44">
@@ -7074,7 +7074,7 @@
         <v>58</v>
       </c>
       <c r="H45">
-        <f>IF(E45=$D$2,INT(G45/2.23)+F45,F45)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J45">
@@ -7125,7 +7125,7 @@
         <v>32</v>
       </c>
       <c r="H46">
-        <f>IF(E46=$D$2,INT(G46/2.23)+F46,F46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J46">
@@ -7176,7 +7176,7 @@
         <v>34</v>
       </c>
       <c r="H47">
-        <f>IF(E47=$D$2,INT(G47/2.23)+F47,F47)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J47">
@@ -7227,7 +7227,7 @@
         <v>20</v>
       </c>
       <c r="H48">
-        <f>IF(E48=$D$2,INT(G48/2.23)+F48,F48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J48">
@@ -7278,8 +7278,8 @@
         <v>42</v>
       </c>
       <c r="H49">
-        <f>IF(E49=$D$2,INT(G49/2.23)+F49,F49)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="J49">
         <v>88.024000000000001</v>
@@ -7329,8 +7329,8 @@
         <v>42</v>
       </c>
       <c r="H50">
-        <f>IF(E50=$D$2,INT(G50/2.23)+F50,F50)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="J50">
         <v>87.269000000000005</v>
@@ -7380,8 +7380,8 @@
         <v>23</v>
       </c>
       <c r="H51">
-        <f>IF(E51=$D$2,INT(G51/2.23)+F51,F51)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="J51">
         <v>47.497999999999998</v>
@@ -7431,7 +7431,7 @@
         <v>12</v>
       </c>
       <c r="H52">
-        <f>IF(E52=$D$2,INT(G52/2.23)+F52,F52)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J52">
@@ -7482,7 +7482,7 @@
         <v>42</v>
       </c>
       <c r="H53">
-        <f>IF(E53=$D$2,INT(G53/2.23)+F53,F53)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J53">
@@ -7533,7 +7533,7 @@
         <v>49</v>
       </c>
       <c r="H54">
-        <f>IF(E54=$D$2,INT(G54/2.23)+F54,F54)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J54">
@@ -7584,8 +7584,8 @@
         <v>23</v>
       </c>
       <c r="H55">
-        <f>IF(E55=$D$2,INT(G55/2.23)+F55,F55)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="J55">
         <v>48.494999999999997</v>
@@ -7635,7 +7635,7 @@
         <v>20</v>
       </c>
       <c r="H56">
-        <f>IF(E56=$D$2,INT(G56/2.23)+F56,F56)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J56">
@@ -7686,7 +7686,7 @@
         <v>540</v>
       </c>
       <c r="H57">
-        <f>IF(E57=$D$2,INT(G57/2.23)+F57,F57)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J57">
@@ -7737,7 +7737,7 @@
         <v>276</v>
       </c>
       <c r="H58">
-        <f>IF(E58=$D$2,INT(G58/2.23)+F58,F58)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J58">
@@ -7788,7 +7788,7 @@
         <v>1157</v>
       </c>
       <c r="H59">
-        <f>IF(E59=$D$2,INT(G59/2.23)+F59,F59)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J59">
@@ -7839,7 +7839,7 @@
         <v>23</v>
       </c>
       <c r="H60">
-        <f>IF(E60=$D$2,INT(G60/2.23)+F60,F60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J60">
@@ -7890,8 +7890,8 @@
         <v>33</v>
       </c>
       <c r="H61">
-        <f>IF(E61=$D$2,INT(G61/2.23)+F61,F61)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="J61">
         <v>69.504000000000005</v>
@@ -7941,8 +7941,8 @@
         <v>15</v>
       </c>
       <c r="H62">
-        <f>IF(E62=$D$2,INT(G62/2.23)+F62,F62)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="J62">
         <v>30.893999999999998</v>
@@ -7992,8 +7992,8 @@
         <v>17</v>
       </c>
       <c r="H63">
-        <f>IF(E63=$D$2,INT(G63/2.23)+F63,F63)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="J63">
         <v>34.762999999999998</v>
@@ -8043,8 +8043,8 @@
         <v>51</v>
       </c>
       <c r="H64">
-        <f>IF(E64=$D$2,INT(G64/2.23)+F64,F64)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="J64">
         <v>12.180999999999999</v>
@@ -8094,8 +8094,8 @@
         <v>43</v>
       </c>
       <c r="H65">
-        <f>IF(E65=$D$2,INT(G65/2.23)+F65,F65)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="J65">
         <v>90.444999999999993</v>
@@ -8145,8 +8145,8 @@
         <v>30</v>
       </c>
       <c r="H66">
-        <f>IF(E66=$D$2,INT(G66/2.23)+F66,F66)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="J66">
         <v>62.854999999999997</v>
@@ -8196,8 +8196,8 @@
         <v>29</v>
       </c>
       <c r="H67">
-        <f>IF(E67=$D$2,INT(G67/2.23)+F67,F67)</f>
-        <v>2</v>
+        <f t="shared" ref="H67:H130" si="1">IF(E67="Residential",INT(G67/2.23)+F67,F67)</f>
+        <v>15</v>
       </c>
       <c r="J67">
         <v>60.378999999999998</v>
@@ -8247,8 +8247,8 @@
         <v>74</v>
       </c>
       <c r="H68">
-        <f>IF(E68=$D$2,INT(G68/2.23)+F68,F68)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="J68">
         <v>47.261000000000003</v>
@@ -8298,8 +8298,8 @@
         <v>28</v>
       </c>
       <c r="H69">
-        <f>IF(E69=$D$2,INT(G69/2.23)+F69,F69)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="J69">
         <v>57.953000000000003</v>
@@ -8349,8 +8349,8 @@
         <v>12</v>
       </c>
       <c r="H70">
-        <f>IF(E70=$D$2,INT(G70/2.23)+F70,F70)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="J70">
         <v>26.498000000000001</v>
@@ -8400,8 +8400,8 @@
         <v>10</v>
       </c>
       <c r="H71">
-        <f>IF(E71=$D$2,INT(G71/2.23)+F71,F71)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J71">
         <v>21.027999999999999</v>
@@ -8451,8 +8451,8 @@
         <v>40</v>
       </c>
       <c r="H72">
-        <f>IF(E72=$D$2,INT(G72/2.23)+F72,F72)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="J72">
         <v>83.933000000000007</v>
@@ -8502,8 +8502,8 @@
         <v>44</v>
       </c>
       <c r="H73">
-        <f>IF(E73=$D$2,INT(G73/2.23)+F73,F73)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="J73">
         <v>91.706999999999994</v>
@@ -8553,8 +8553,8 @@
         <v>38</v>
       </c>
       <c r="H74">
-        <f>IF(E74=$D$2,INT(G74/2.23)+F74,F74)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="J74">
         <v>79.539000000000001</v>
@@ -8604,8 +8604,8 @@
         <v>39</v>
       </c>
       <c r="H75">
-        <f>IF(E75=$D$2,INT(G75/2.23)+F75,F75)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="J75">
         <v>81.263999999999996</v>
@@ -8655,8 +8655,8 @@
         <v>38</v>
       </c>
       <c r="H76">
-        <f>IF(E76=$D$2,INT(G76/2.23)+F76,F76)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="J76">
         <v>79.709000000000003</v>
@@ -8706,8 +8706,8 @@
         <v>34</v>
       </c>
       <c r="H77">
-        <f>IF(E77=$D$2,INT(G77/2.23)+F77,F77)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="J77">
         <v>71.108000000000004</v>
@@ -8757,8 +8757,8 @@
         <v>28</v>
       </c>
       <c r="H78">
-        <f>IF(E78=$D$2,INT(G78/2.23)+F78,F78)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="J78">
         <v>59.146999999999998</v>
@@ -8808,8 +8808,8 @@
         <v>34</v>
       </c>
       <c r="H79">
-        <f>IF(E79=$D$2,INT(G79/2.23)+F79,F79)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="J79">
         <v>71.596000000000004</v>
@@ -8859,8 +8859,8 @@
         <v>34</v>
       </c>
       <c r="H80">
-        <f>IF(E80=$D$2,INT(G80/2.23)+F80,F80)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="J80">
         <v>70.302000000000007</v>
@@ -8910,8 +8910,8 @@
         <v>35</v>
       </c>
       <c r="H81">
-        <f>IF(E81=$D$2,INT(G81/2.23)+F81,F81)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="J81">
         <v>72.647000000000006</v>
@@ -8961,8 +8961,8 @@
         <v>33</v>
       </c>
       <c r="H82">
-        <f>IF(E82=$D$2,INT(G82/2.23)+F82,F82)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="J82">
         <v>69.980999999999995</v>
@@ -9012,8 +9012,8 @@
         <v>26</v>
       </c>
       <c r="H83">
-        <f>IF(E83=$D$2,INT(G83/2.23)+F83,F83)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="J83">
         <v>77.040999999999997</v>
@@ -9063,8 +9063,8 @@
         <v>25</v>
       </c>
       <c r="H84">
-        <f>IF(E84=$D$2,INT(G84/2.23)+F84,F84)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="J84">
         <v>77.753</v>
@@ -9114,8 +9114,8 @@
         <v>26</v>
       </c>
       <c r="H85">
-        <f>IF(E85=$D$2,INT(G85/2.23)+F85,F85)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="J85">
         <v>80.622</v>
@@ -9165,7 +9165,7 @@
         <v>29</v>
       </c>
       <c r="H86">
-        <f>IF(E86=$D$2,INT(G86/2.23)+F86,F86)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J86">
@@ -9216,7 +9216,7 @@
         <v>32</v>
       </c>
       <c r="H87">
-        <f>IF(E87=$D$2,INT(G87/2.23)+F87,F87)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J87">
@@ -9267,7 +9267,7 @@
         <v>39</v>
       </c>
       <c r="H88">
-        <f>IF(E88=$D$2,INT(G88/2.23)+F88,F88)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J88">
@@ -9318,7 +9318,7 @@
         <v>26</v>
       </c>
       <c r="H89">
-        <f>IF(E89=$D$2,INT(G89/2.23)+F89,F89)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J89">
@@ -9369,7 +9369,7 @@
         <v>46</v>
       </c>
       <c r="H90">
-        <f>IF(E90=$D$2,INT(G90/2.23)+F90,F90)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J90">
@@ -9420,7 +9420,7 @@
         <v>16</v>
       </c>
       <c r="H91">
-        <f>IF(E91=$D$2,INT(G91/2.23)+F91,F91)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J91">
@@ -9471,8 +9471,8 @@
         <v>13</v>
       </c>
       <c r="H92">
-        <f>IF(E92=$D$2,INT(G92/2.23)+F92,F92)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="J92">
         <v>27.062000000000001</v>
@@ -9522,8 +9522,8 @@
         <v>23</v>
       </c>
       <c r="H93">
-        <f>IF(E93=$D$2,INT(G93/2.23)+F93,F93)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="J93">
         <v>48.223999999999997</v>
@@ -9573,7 +9573,7 @@
         <v>9</v>
       </c>
       <c r="H94">
-        <f>IF(E94=$D$2,INT(G94/2.23)+F94,F94)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J94">
@@ -9624,7 +9624,7 @@
         <v>31</v>
       </c>
       <c r="H95">
-        <f>IF(E95=$D$2,INT(G95/2.23)+F95,F95)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J95">
@@ -9675,8 +9675,8 @@
         <v>29</v>
       </c>
       <c r="H96">
-        <f>IF(E96=$D$2,INT(G96/2.23)+F96,F96)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="J96">
         <v>60.667999999999999</v>
@@ -9726,8 +9726,8 @@
         <v>38</v>
       </c>
       <c r="H97">
-        <f>IF(E97=$D$2,INT(G97/2.23)+F97,F97)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="J97">
         <v>79.155000000000001</v>
@@ -9777,8 +9777,8 @@
         <v>41</v>
       </c>
       <c r="H98">
-        <f>IF(E98=$D$2,INT(G98/2.23)+F98,F98)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="J98">
         <v>84.733999999999995</v>
@@ -9828,8 +9828,8 @@
         <v>24</v>
       </c>
       <c r="H99">
-        <f>IF(E99=$D$2,INT(G99/2.23)+F99,F99)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="J99">
         <v>50.253</v>
@@ -9879,8 +9879,8 @@
         <v>39</v>
       </c>
       <c r="H100">
-        <f>IF(E100=$D$2,INT(G100/2.23)+F100,F100)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="J100">
         <v>81.513999999999996</v>
@@ -9930,8 +9930,8 @@
         <v>24</v>
       </c>
       <c r="H101">
-        <f>IF(E101=$D$2,INT(G101/2.23)+F101,F101)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="J101">
         <v>50.689</v>
@@ -9981,8 +9981,8 @@
         <v>20</v>
       </c>
       <c r="H102">
-        <f>IF(E102=$D$2,INT(G102/2.23)+F102,F102)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J102">
         <v>41.997999999999998</v>
@@ -10032,8 +10032,8 @@
         <v>28</v>
       </c>
       <c r="H103">
-        <f>IF(E103=$D$2,INT(G103/2.23)+F103,F103)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="J103">
         <v>58.918999999999997</v>
@@ -10083,8 +10083,8 @@
         <v>15</v>
       </c>
       <c r="H104">
-        <f>IF(E104=$D$2,INT(G104/2.23)+F104,F104)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="J104">
         <v>31.044</v>
@@ -10134,8 +10134,8 @@
         <v>18</v>
       </c>
       <c r="H105">
-        <f>IF(E105=$D$2,INT(G105/2.23)+F105,F105)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J105">
         <v>36.878999999999998</v>
@@ -10185,8 +10185,8 @@
         <v>30</v>
       </c>
       <c r="H106">
-        <f>IF(E106=$D$2,INT(G106/2.23)+F106,F106)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="J106">
         <v>63.319000000000003</v>
@@ -10236,7 +10236,7 @@
         <v>47</v>
       </c>
       <c r="H107">
-        <f>IF(E107=$D$2,INT(G107/2.23)+F107,F107)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J107">
@@ -10287,8 +10287,8 @@
         <v>34</v>
       </c>
       <c r="H108">
-        <f>IF(E108=$D$2,INT(G108/2.23)+F108,F108)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="J108">
         <v>72.019000000000005</v>
@@ -10338,8 +10338,8 @@
         <v>62</v>
       </c>
       <c r="H109">
-        <f>IF(E109=$D$2,INT(G109/2.23)+F109,F109)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="J109">
         <v>18.413</v>
@@ -10389,8 +10389,8 @@
         <v>21</v>
       </c>
       <c r="H110">
-        <f>IF(E110=$D$2,INT(G110/2.23)+F110,F110)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="J110">
         <v>66.194000000000003</v>
@@ -10440,8 +10440,8 @@
         <v>17</v>
       </c>
       <c r="H111">
-        <f>IF(E111=$D$2,INT(G111/2.23)+F111,F111)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J111">
         <v>34.712000000000003</v>
@@ -10491,8 +10491,8 @@
         <v>20</v>
       </c>
       <c r="H112">
-        <f>IF(E112=$D$2,INT(G112/2.23)+F112,F112)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J112">
         <v>41.2</v>
@@ -10542,8 +10542,8 @@
         <v>24</v>
       </c>
       <c r="H113">
-        <f>IF(E113=$D$2,INT(G113/2.23)+F113,F113)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="J113">
         <v>50.427</v>
@@ -10593,8 +10593,8 @@
         <v>34</v>
       </c>
       <c r="H114">
-        <f>IF(E114=$D$2,INT(G114/2.23)+F114,F114)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="J114">
         <v>80.52</v>
@@ -10644,8 +10644,8 @@
         <v>62</v>
       </c>
       <c r="H115">
-        <f>IF(E115=$D$2,INT(G115/2.23)+F115,F115)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="J115">
         <v>80.748000000000005</v>
@@ -10695,8 +10695,8 @@
         <v>15</v>
       </c>
       <c r="H116">
-        <f>IF(E116=$D$2,INT(G116/2.23)+F116,F116)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="J116">
         <v>32.322000000000003</v>
@@ -10746,8 +10746,8 @@
         <v>15</v>
       </c>
       <c r="H117">
-        <f>IF(E117=$D$2,INT(G117/2.23)+F117,F117)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="J117">
         <v>38.655000000000001</v>
@@ -10797,8 +10797,8 @@
         <v>13</v>
       </c>
       <c r="H118">
-        <f>IF(E118=$D$2,INT(G118/2.23)+F118,F118)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="J118">
         <v>32.392000000000003</v>
@@ -10848,8 +10848,8 @@
         <v>38</v>
       </c>
       <c r="H119">
-        <f>IF(E119=$D$2,INT(G119/2.23)+F119,F119)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="J119">
         <v>80.47</v>
@@ -10899,8 +10899,8 @@
         <v>18</v>
       </c>
       <c r="H120">
-        <f>IF(E120=$D$2,INT(G120/2.23)+F120,F120)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="J120">
         <v>37.585000000000001</v>
@@ -10950,8 +10950,8 @@
         <v>49</v>
       </c>
       <c r="H121">
-        <f>IF(E121=$D$2,INT(G121/2.23)+F121,F121)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="J121">
         <v>28.085999999999999</v>
@@ -11001,8 +11001,8 @@
         <v>31</v>
       </c>
       <c r="H122">
-        <f>IF(E122=$D$2,INT(G122/2.23)+F122,F122)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="J122">
         <v>65.754999999999995</v>
@@ -11052,7 +11052,7 @@
         <v>21</v>
       </c>
       <c r="H123">
-        <f>IF(E123=$D$2,INT(G123/2.23)+F123,F123)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J123">
@@ -11103,7 +11103,7 @@
         <v>30</v>
       </c>
       <c r="H124">
-        <f>IF(E124=$D$2,INT(G124/2.23)+F124,F124)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J124">
@@ -11154,8 +11154,8 @@
         <v>27</v>
       </c>
       <c r="H125">
-        <f>IF(E125=$D$2,INT(G125/2.23)+F125,F125)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="J125">
         <v>57.512999999999998</v>
@@ -11205,8 +11205,8 @@
         <v>29</v>
       </c>
       <c r="H126">
-        <f>IF(E126=$D$2,INT(G126/2.23)+F126,F126)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="J126">
         <v>61.456000000000003</v>
@@ -11256,8 +11256,8 @@
         <v>29</v>
       </c>
       <c r="H127">
-        <f>IF(E127=$D$2,INT(G127/2.23)+F127,F127)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="J127">
         <v>59.636000000000003</v>
@@ -11307,8 +11307,8 @@
         <v>30</v>
       </c>
       <c r="H128">
-        <f>IF(E128=$D$2,INT(G128/2.23)+F128,F128)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="J128">
         <v>61.976999999999997</v>
@@ -11358,8 +11358,8 @@
         <v>15</v>
       </c>
       <c r="H129">
-        <f>IF(E129=$D$2,INT(G129/2.23)+F129,F129)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="J129">
         <v>30.498000000000001</v>
@@ -11409,8 +11409,8 @@
         <v>47</v>
       </c>
       <c r="H130">
-        <f>IF(E130=$D$2,INT(G130/2.23)+F130,F130)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="J130">
         <v>97.74</v>
@@ -11460,8 +11460,8 @@
         <v>32</v>
       </c>
       <c r="H131">
-        <f>IF(E131=$D$2,INT(G131/2.23)+F131,F131)</f>
-        <v>1</v>
+        <f t="shared" ref="H131:H194" si="2">IF(E131="Residential",INT(G131/2.23)+F131,F131)</f>
+        <v>15</v>
       </c>
       <c r="J131">
         <v>66.453999999999994</v>
@@ -11511,8 +11511,8 @@
         <v>32</v>
       </c>
       <c r="H132">
-        <f>IF(E132=$D$2,INT(G132/2.23)+F132,F132)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="J132">
         <v>66.971000000000004</v>
@@ -11562,8 +11562,8 @@
         <v>10</v>
       </c>
       <c r="H133">
-        <f>IF(E133=$D$2,INT(G133/2.23)+F133,F133)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J133">
         <v>27.164000000000001</v>
@@ -11613,8 +11613,8 @@
         <v>10</v>
       </c>
       <c r="H134">
-        <f>IF(E134=$D$2,INT(G134/2.23)+F134,F134)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J134">
         <v>31.919</v>
@@ -11664,8 +11664,8 @@
         <v>12</v>
       </c>
       <c r="H135">
-        <f>IF(E135=$D$2,INT(G135/2.23)+F135,F135)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J135">
         <v>24.161000000000001</v>
@@ -11715,8 +11715,8 @@
         <v>6</v>
       </c>
       <c r="H136">
-        <f>IF(E136=$D$2,INT(G136/2.23)+F136,F136)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="J136">
         <v>20.242000000000001</v>
@@ -11766,8 +11766,8 @@
         <v>5</v>
       </c>
       <c r="H137">
-        <f>IF(E137=$D$2,INT(G137/2.23)+F137,F137)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J137">
         <v>16.655999999999999</v>
@@ -11817,8 +11817,8 @@
         <v>5</v>
       </c>
       <c r="H138">
-        <f>IF(E138=$D$2,INT(G138/2.23)+F138,F138)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J138">
         <v>16.855</v>
@@ -11868,8 +11868,8 @@
         <v>11</v>
       </c>
       <c r="H139">
-        <f>IF(E139=$D$2,INT(G139/2.23)+F139,F139)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="J139">
         <v>23.555</v>
@@ -11919,8 +11919,8 @@
         <v>4</v>
       </c>
       <c r="H140">
-        <f>IF(E140=$D$2,INT(G140/2.23)+F140,F140)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="J140">
         <v>11.788</v>
@@ -11970,8 +11970,8 @@
         <v>5</v>
       </c>
       <c r="H141">
-        <f>IF(E141=$D$2,INT(G141/2.23)+F141,F141)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="J141">
         <v>15.725</v>
@@ -12021,8 +12021,8 @@
         <v>9</v>
       </c>
       <c r="H142">
-        <f>IF(E142=$D$2,INT(G142/2.23)+F142,F142)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="J142">
         <v>28.585000000000001</v>
@@ -12072,8 +12072,8 @@
         <v>12</v>
       </c>
       <c r="H143">
-        <f>IF(E143=$D$2,INT(G143/2.23)+F143,F143)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J143">
         <v>39.023000000000003</v>
@@ -12123,7 +12123,7 @@
         <v>225</v>
       </c>
       <c r="H144">
-        <f>IF(E144=$D$2,INT(G144/2.23)+F144,F144)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J144">
@@ -12174,8 +12174,8 @@
         <v>27</v>
       </c>
       <c r="H145">
-        <f>IF(E145=$D$2,INT(G145/2.23)+F145,F145)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="J145">
         <v>57.201000000000001</v>
@@ -12225,8 +12225,8 @@
         <v>8</v>
       </c>
       <c r="H146">
-        <f>IF(E146=$D$2,INT(G146/2.23)+F146,F146)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="J146">
         <v>26.567</v>
@@ -12276,8 +12276,8 @@
         <v>7</v>
       </c>
       <c r="H147">
-        <f>IF(E147=$D$2,INT(G147/2.23)+F147,F147)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="J147">
         <v>23.827999999999999</v>
@@ -12327,8 +12327,8 @@
         <v>12</v>
       </c>
       <c r="H148">
-        <f>IF(E148=$D$2,INT(G148/2.23)+F148,F148)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J148">
         <v>37.866</v>
@@ -12378,8 +12378,8 @@
         <v>12</v>
       </c>
       <c r="H149">
-        <f>IF(E149=$D$2,INT(G149/2.23)+F149,F149)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J149">
         <v>38.463999999999999</v>
@@ -12429,8 +12429,8 @@
         <v>43</v>
       </c>
       <c r="H150">
-        <f>IF(E150=$D$2,INT(G150/2.23)+F150,F150)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="J150">
         <v>89.789000000000001</v>
@@ -12480,8 +12480,8 @@
         <v>20</v>
       </c>
       <c r="H151">
-        <f>IF(E151=$D$2,INT(G151/2.23)+F151,F151)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="J151">
         <v>41.634</v>
@@ -12531,8 +12531,8 @@
         <v>35</v>
       </c>
       <c r="H152">
-        <f>IF(E152=$D$2,INT(G152/2.23)+F152,F152)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="J152">
         <v>73.245999999999995</v>
@@ -12582,8 +12582,8 @@
         <v>24</v>
       </c>
       <c r="H153">
-        <f>IF(E153=$D$2,INT(G153/2.23)+F153,F153)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="J153">
         <v>50.735999999999997</v>
@@ -12633,8 +12633,8 @@
         <v>16</v>
       </c>
       <c r="H154">
-        <f>IF(E154=$D$2,INT(G154/2.23)+F154,F154)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J154">
         <v>32.819000000000003</v>
@@ -12684,8 +12684,8 @@
         <v>23</v>
       </c>
       <c r="H155">
-        <f>IF(E155=$D$2,INT(G155/2.23)+F155,F155)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="J155">
         <v>47.48</v>
@@ -12735,8 +12735,8 @@
         <v>46</v>
       </c>
       <c r="H156">
-        <f>IF(E156=$D$2,INT(G156/2.23)+F156,F156)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="J156">
         <v>96.441999999999993</v>
@@ -12786,8 +12786,8 @@
         <v>39</v>
       </c>
       <c r="H157">
-        <f>IF(E157=$D$2,INT(G157/2.23)+F157,F157)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="J157">
         <v>81.475999999999999</v>
@@ -12837,8 +12837,8 @@
         <v>15</v>
       </c>
       <c r="H158">
-        <f>IF(E158=$D$2,INT(G158/2.23)+F158,F158)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="J158">
         <v>30.436</v>
@@ -12888,8 +12888,8 @@
         <v>33</v>
       </c>
       <c r="H159">
-        <f>IF(E159=$D$2,INT(G159/2.23)+F159,F159)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="J159">
         <v>69.748000000000005</v>
@@ -12939,8 +12939,8 @@
         <v>34</v>
       </c>
       <c r="H160">
-        <f>IF(E160=$D$2,INT(G160/2.23)+F160,F160)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="J160">
         <v>72.141999999999996</v>
@@ -12990,8 +12990,8 @@
         <v>30</v>
       </c>
       <c r="H161">
-        <f>IF(E161=$D$2,INT(G161/2.23)+F161,F161)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="J161">
         <v>62.661000000000001</v>
@@ -13041,8 +13041,8 @@
         <v>17</v>
       </c>
       <c r="H162">
-        <f>IF(E162=$D$2,INT(G162/2.23)+F162,F162)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J162">
         <v>36.573999999999998</v>
@@ -13092,8 +13092,8 @@
         <v>26</v>
       </c>
       <c r="H163">
-        <f>IF(E163=$D$2,INT(G163/2.23)+F163,F163)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="J163">
         <v>53.573999999999998</v>
@@ -13143,8 +13143,8 @@
         <v>31</v>
       </c>
       <c r="H164">
-        <f>IF(E164=$D$2,INT(G164/2.23)+F164,F164)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="J164">
         <v>65.742000000000004</v>
@@ -13194,7 +13194,7 @@
         <v>215</v>
       </c>
       <c r="H165">
-        <f>IF(E165=$D$2,INT(G165/2.23)+F165,F165)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J165">
@@ -13245,7 +13245,7 @@
         <v>31</v>
       </c>
       <c r="H166">
-        <f>IF(E166=$D$2,INT(G166/2.23)+F166,F166)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J166">
@@ -13296,7 +13296,7 @@
         <v>26</v>
       </c>
       <c r="H167">
-        <f>IF(E167=$D$2,INT(G167/2.23)+F167,F167)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J167">
@@ -13347,7 +13347,7 @@
         <v>17</v>
       </c>
       <c r="H168">
-        <f>IF(E168=$D$2,INT(G168/2.23)+F168,F168)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J168">
@@ -13398,7 +13398,7 @@
         <v>17</v>
       </c>
       <c r="H169">
-        <f>IF(E169=$D$2,INT(G169/2.23)+F169,F169)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J169">
@@ -13449,7 +13449,7 @@
         <v>27</v>
       </c>
       <c r="H170">
-        <f>IF(E170=$D$2,INT(G170/2.23)+F170,F170)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J170">
@@ -13500,7 +13500,7 @@
         <v>34</v>
       </c>
       <c r="H171">
-        <f>IF(E171=$D$2,INT(G171/2.23)+F171,F171)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J171">
@@ -13551,7 +13551,7 @@
         <v>31</v>
       </c>
       <c r="H172">
-        <f>IF(E172=$D$2,INT(G172/2.23)+F172,F172)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J172">
@@ -13602,7 +13602,7 @@
         <v>23</v>
       </c>
       <c r="H173">
-        <f>IF(E173=$D$2,INT(G173/2.23)+F173,F173)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J173">
@@ -13653,7 +13653,7 @@
         <v>35</v>
       </c>
       <c r="H174">
-        <f>IF(E174=$D$2,INT(G174/2.23)+F174,F174)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J174">
@@ -13704,7 +13704,7 @@
         <v>29</v>
       </c>
       <c r="H175">
-        <f>IF(E175=$D$2,INT(G175/2.23)+F175,F175)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J175">
@@ -13755,7 +13755,7 @@
         <v>31</v>
       </c>
       <c r="H176">
-        <f>IF(E176=$D$2,INT(G176/2.23)+F176,F176)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J176">
@@ -13806,8 +13806,8 @@
         <v>47</v>
       </c>
       <c r="H177">
-        <f>IF(E177=$D$2,INT(G177/2.23)+F177,F177)</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="J177">
         <v>97.738</v>
@@ -13857,8 +13857,8 @@
         <v>18</v>
       </c>
       <c r="H178">
-        <f>IF(E178=$D$2,INT(G178/2.23)+F178,F178)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="J178">
         <v>38.353999999999999</v>
@@ -13908,8 +13908,8 @@
         <v>18</v>
       </c>
       <c r="H179">
-        <f>IF(E179=$D$2,INT(G179/2.23)+F179,F179)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="J179">
         <v>37.329000000000001</v>
@@ -13959,8 +13959,8 @@
         <v>26</v>
       </c>
       <c r="H180">
-        <f>IF(E180=$D$2,INT(G180/2.23)+F180,F180)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="J180">
         <v>53.792999999999999</v>
@@ -14010,8 +14010,8 @@
         <v>24</v>
       </c>
       <c r="H181">
-        <f>IF(E181=$D$2,INT(G181/2.23)+F181,F181)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="J181">
         <v>49.436999999999998</v>
@@ -14061,8 +14061,8 @@
         <v>18</v>
       </c>
       <c r="H182">
-        <f>IF(E182=$D$2,INT(G182/2.23)+F182,F182)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="J182">
         <v>37.835000000000001</v>
@@ -14112,8 +14112,8 @@
         <v>140</v>
       </c>
       <c r="H183">
-        <f>IF(E183=$D$2,INT(G183/2.23)+F183,F183)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>63</v>
       </c>
       <c r="J183">
         <v>40.064999999999998</v>
@@ -14163,8 +14163,8 @@
         <v>174</v>
       </c>
       <c r="H184">
-        <f>IF(E184=$D$2,INT(G184/2.23)+F184,F184)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
       <c r="J184">
         <v>39.027999999999999</v>
@@ -14214,8 +14214,8 @@
         <v>38</v>
       </c>
       <c r="H185">
-        <f>IF(E185=$D$2,INT(G185/2.23)+F185,F185)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="J185">
         <v>12.169</v>
@@ -14265,7 +14265,7 @@
         <v>259</v>
       </c>
       <c r="H186">
-        <f>IF(E186=$D$2,INT(G186/2.23)+F186,F186)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J186">
@@ -14316,7 +14316,7 @@
         <v>25</v>
       </c>
       <c r="H187">
-        <f>IF(E187=$D$2,INT(G187/2.23)+F187,F187)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J187">
@@ -14367,7 +14367,7 @@
         <v>27</v>
       </c>
       <c r="H188">
-        <f>IF(E188=$D$2,INT(G188/2.23)+F188,F188)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J188">
@@ -14418,7 +14418,7 @@
         <v>62</v>
       </c>
       <c r="H189">
-        <f>IF(E189=$D$2,INT(G189/2.23)+F189,F189)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J189">
@@ -14469,7 +14469,7 @@
         <v>39</v>
       </c>
       <c r="H190">
-        <f>IF(E190=$D$2,INT(G190/2.23)+F190,F190)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J190">
@@ -14520,7 +14520,7 @@
         <v>23</v>
       </c>
       <c r="H191">
-        <f>IF(E191=$D$2,INT(G191/2.23)+F191,F191)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J191">
@@ -14571,7 +14571,7 @@
         <v>25</v>
       </c>
       <c r="H192">
-        <f>IF(E192=$D$2,INT(G192/2.23)+F192,F192)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J192">
@@ -14622,7 +14622,7 @@
         <v>28</v>
       </c>
       <c r="H193">
-        <f>IF(E193=$D$2,INT(G193/2.23)+F193,F193)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J193">
@@ -14673,7 +14673,7 @@
         <v>25</v>
       </c>
       <c r="H194">
-        <f>IF(E194=$D$2,INT(G194/2.23)+F194,F194)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J194">
@@ -14724,7 +14724,7 @@
         <v>27</v>
       </c>
       <c r="H195">
-        <f>IF(E195=$D$2,INT(G195/2.23)+F195,F195)</f>
+        <f t="shared" ref="H195:H258" si="3">IF(E195="Residential",INT(G195/2.23)+F195,F195)</f>
         <v>1</v>
       </c>
       <c r="J195">
@@ -14775,7 +14775,7 @@
         <v>44</v>
       </c>
       <c r="H196">
-        <f>IF(E196=$D$2,INT(G196/2.23)+F196,F196)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J196">
@@ -14826,7 +14826,7 @@
         <v>42</v>
       </c>
       <c r="H197">
-        <f>IF(E197=$D$2,INT(G197/2.23)+F197,F197)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J197">
@@ -14877,7 +14877,7 @@
         <v>43</v>
       </c>
       <c r="H198">
-        <f>IF(E198=$D$2,INT(G198/2.23)+F198,F198)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J198">
@@ -14928,7 +14928,7 @@
         <v>39</v>
       </c>
       <c r="H199">
-        <f>IF(E199=$D$2,INT(G199/2.23)+F199,F199)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J199">
@@ -14979,8 +14979,8 @@
         <v>29</v>
       </c>
       <c r="H200">
-        <f>IF(E200=$D$2,INT(G200/2.23)+F200,F200)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
       </c>
       <c r="J200">
         <v>64.16</v>
@@ -15030,8 +15030,8 @@
         <v>80</v>
       </c>
       <c r="H201">
-        <f>IF(E201=$D$2,INT(G201/2.23)+F201,F201)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="J201">
         <v>23.193000000000001</v>
@@ -15081,8 +15081,8 @@
         <v>33</v>
       </c>
       <c r="H202">
-        <f>IF(E202=$D$2,INT(G202/2.23)+F202,F202)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="J202">
         <v>68.491</v>
@@ -15132,7 +15132,7 @@
         <v>149</v>
       </c>
       <c r="H203">
-        <f>IF(E203=$D$2,INT(G203/2.23)+F203,F203)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J203">
@@ -15183,7 +15183,7 @@
         <v>30</v>
       </c>
       <c r="H204">
-        <f>IF(E204=$D$2,INT(G204/2.23)+F204,F204)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J204">
@@ -15234,7 +15234,7 @@
         <v>45</v>
       </c>
       <c r="H205">
-        <f>IF(E205=$D$2,INT(G205/2.23)+F205,F205)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J205">
@@ -15285,8 +15285,8 @@
         <v>26</v>
       </c>
       <c r="H206">
-        <f>IF(E206=$D$2,INT(G206/2.23)+F206,F206)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="J206">
         <v>54.393000000000001</v>
@@ -15336,8 +15336,8 @@
         <v>30</v>
       </c>
       <c r="H207">
-        <f>IF(E207=$D$2,INT(G207/2.23)+F207,F207)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="J207">
         <v>62.9</v>
@@ -15387,8 +15387,8 @@
         <v>59</v>
       </c>
       <c r="H208">
-        <f>IF(E208=$D$2,INT(G208/2.23)+F208,F208)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>28</v>
       </c>
       <c r="J208">
         <v>87.581000000000003</v>
@@ -15438,8 +15438,8 @@
         <v>32</v>
       </c>
       <c r="H209">
-        <f>IF(E209=$D$2,INT(G209/2.23)+F209,F209)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
       <c r="J209">
         <v>67.820999999999998</v>
@@ -15489,8 +15489,8 @@
         <v>47</v>
       </c>
       <c r="H210">
-        <f>IF(E210=$D$2,INT(G210/2.23)+F210,F210)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="J210">
         <v>97.396000000000001</v>
@@ -15540,8 +15540,8 @@
         <v>31</v>
       </c>
       <c r="H211">
-        <f>IF(E211=$D$2,INT(G211/2.23)+F211,F211)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="J211">
         <v>63.966000000000001</v>
@@ -15591,8 +15591,8 @@
         <v>38</v>
       </c>
       <c r="H212">
-        <f>IF(E212=$D$2,INT(G212/2.23)+F212,F212)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="J212">
         <v>78.534999999999997</v>
@@ -15642,8 +15642,8 @@
         <v>80</v>
       </c>
       <c r="H213">
-        <f>IF(E213=$D$2,INT(G213/2.23)+F213,F213)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
       <c r="J213">
         <v>75.046000000000006</v>
@@ -15693,7 +15693,7 @@
         <v>169</v>
       </c>
       <c r="H214">
-        <f>IF(E214=$D$2,INT(G214/2.23)+F214,F214)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J214">
@@ -15744,7 +15744,7 @@
         <v>27</v>
       </c>
       <c r="H215">
-        <f>IF(E215=$D$2,INT(G215/2.23)+F215,F215)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J215">
@@ -15795,7 +15795,7 @@
         <v>28</v>
       </c>
       <c r="H216">
-        <f>IF(E216=$D$2,INT(G216/2.23)+F216,F216)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J216">
@@ -15846,7 +15846,7 @@
         <v>27</v>
       </c>
       <c r="H217">
-        <f>IF(E217=$D$2,INT(G217/2.23)+F217,F217)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J217">
@@ -15897,7 +15897,7 @@
         <v>24</v>
       </c>
       <c r="H218">
-        <f>IF(E218=$D$2,INT(G218/2.23)+F218,F218)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="J218">
@@ -15948,7 +15948,7 @@
         <v>26</v>
       </c>
       <c r="H219">
-        <f>IF(E219=$D$2,INT(G219/2.23)+F219,F219)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J219">
@@ -15999,8 +15999,8 @@
         <v>38</v>
       </c>
       <c r="H220">
-        <f>IF(E220=$D$2,INT(G220/2.23)+F220,F220)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="J220">
         <v>79.647000000000006</v>
@@ -16050,8 +16050,8 @@
         <v>47</v>
       </c>
       <c r="H221">
-        <f>IF(E221=$D$2,INT(G221/2.23)+F221,F221)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="J221">
         <v>97.896000000000001</v>
@@ -16101,8 +16101,8 @@
         <v>31</v>
       </c>
       <c r="H222">
-        <f>IF(E222=$D$2,INT(G222/2.23)+F222,F222)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="J222">
         <v>98.13</v>
@@ -16152,8 +16152,8 @@
         <v>23</v>
       </c>
       <c r="H223">
-        <f>IF(E223=$D$2,INT(G223/2.23)+F223,F223)</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="J223">
         <v>72.551000000000002</v>
@@ -16203,8 +16203,8 @@
         <v>26</v>
       </c>
       <c r="H224">
-        <f>IF(E224=$D$2,INT(G224/2.23)+F224,F224)</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="J224">
         <v>82.495999999999995</v>
@@ -16254,8 +16254,8 @@
         <v>29</v>
       </c>
       <c r="H225">
-        <f>IF(E225=$D$2,INT(G225/2.23)+F225,F225)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="J225">
         <v>92.51</v>
@@ -16305,8 +16305,8 @@
         <v>28</v>
       </c>
       <c r="H226">
-        <f>IF(E226=$D$2,INT(G226/2.23)+F226,F226)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="J226">
         <v>89.436999999999998</v>
@@ -16356,8 +16356,8 @@
         <v>29</v>
       </c>
       <c r="H227">
-        <f>IF(E227=$D$2,INT(G227/2.23)+F227,F227)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="J227">
         <v>92.177999999999997</v>
@@ -16407,8 +16407,8 @@
         <v>30</v>
       </c>
       <c r="H228">
-        <f>IF(E228=$D$2,INT(G228/2.23)+F228,F228)</f>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="J228">
         <v>94.347999999999999</v>
@@ -16458,8 +16458,8 @@
         <v>29</v>
       </c>
       <c r="H229">
-        <f>IF(E229=$D$2,INT(G229/2.23)+F229,F229)</f>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="J229">
         <v>91.718999999999994</v>
@@ -16509,8 +16509,8 @@
         <v>20</v>
       </c>
       <c r="H230">
-        <f>IF(E230=$D$2,INT(G230/2.23)+F230,F230)</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="J230">
         <v>61.475000000000001</v>
@@ -16560,8 +16560,8 @@
         <v>25</v>
       </c>
       <c r="H231">
-        <f>IF(E231=$D$2,INT(G231/2.23)+F231,F231)</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="J231">
         <v>77.745999999999995</v>
@@ -16611,7 +16611,7 @@
         <v>502</v>
       </c>
       <c r="H232">
-        <f>IF(E232=$D$2,INT(G232/2.23)+F232,F232)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J232">
@@ -16662,7 +16662,7 @@
         <v>11</v>
       </c>
       <c r="H233">
-        <f>IF(E233=$D$2,INT(G233/2.23)+F233,F233)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J233">
@@ -16713,8 +16713,8 @@
         <v>39</v>
       </c>
       <c r="H234">
-        <f>IF(E234=$D$2,INT(G234/2.23)+F234,F234)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="J234">
         <v>82.43</v>
@@ -16764,8 +16764,8 @@
         <v>40</v>
       </c>
       <c r="H235">
-        <f>IF(E235=$D$2,INT(G235/2.23)+F235,F235)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="J235">
         <v>82.700999999999993</v>
@@ -16815,8 +16815,8 @@
         <v>39</v>
       </c>
       <c r="H236">
-        <f>IF(E236=$D$2,INT(G236/2.23)+F236,F236)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
       </c>
       <c r="J236">
         <v>82.444000000000003</v>
@@ -16866,8 +16866,8 @@
         <v>44</v>
       </c>
       <c r="H237">
-        <f>IF(E237=$D$2,INT(G237/2.23)+F237,F237)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
       </c>
       <c r="J237">
         <v>92.631</v>
@@ -16917,8 +16917,8 @@
         <v>17</v>
       </c>
       <c r="H238">
-        <f>IF(E238=$D$2,INT(G238/2.23)+F238,F238)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="J238">
         <v>34.97</v>
@@ -16968,8 +16968,8 @@
         <v>19</v>
       </c>
       <c r="H239">
-        <f>IF(E239=$D$2,INT(G239/2.23)+F239,F239)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="J239">
         <v>38.972999999999999</v>
@@ -17019,8 +17019,8 @@
         <v>15</v>
       </c>
       <c r="H240">
-        <f>IF(E240=$D$2,INT(G240/2.23)+F240,F240)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="J240">
         <v>31.04</v>
@@ -17070,8 +17070,8 @@
         <v>47</v>
       </c>
       <c r="H241">
-        <f>IF(E241=$D$2,INT(G241/2.23)+F241,F241)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
       </c>
       <c r="J241">
         <v>98.796000000000006</v>
@@ -17121,8 +17121,8 @@
         <v>15</v>
       </c>
       <c r="H242">
-        <f>IF(E242=$D$2,INT(G242/2.23)+F242,F242)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="J242">
         <v>31.63</v>
@@ -17172,8 +17172,8 @@
         <v>27</v>
       </c>
       <c r="H243">
-        <f>IF(E243=$D$2,INT(G243/2.23)+F243,F243)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="J243">
         <v>55.793999999999997</v>
@@ -17223,8 +17223,8 @@
         <v>29</v>
       </c>
       <c r="H244">
-        <f>IF(E244=$D$2,INT(G244/2.23)+F244,F244)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="J244">
         <v>60.344999999999999</v>
@@ -17274,8 +17274,8 @@
         <v>43</v>
       </c>
       <c r="H245">
-        <f>IF(E245=$D$2,INT(G245/2.23)+F245,F245)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="J245">
         <v>90.590999999999994</v>
@@ -17325,8 +17325,8 @@
         <v>43</v>
       </c>
       <c r="H246">
-        <f>IF(E246=$D$2,INT(G246/2.23)+F246,F246)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="J246">
         <v>12.632</v>
@@ -17376,8 +17376,8 @@
         <v>35</v>
       </c>
       <c r="H247">
-        <f>IF(E247=$D$2,INT(G247/2.23)+F247,F247)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
       </c>
       <c r="J247">
         <v>73.936000000000007</v>
@@ -17427,7 +17427,7 @@
         <v>143</v>
       </c>
       <c r="H248">
-        <f>IF(E248=$D$2,INT(G248/2.23)+F248,F248)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J248">
@@ -17478,7 +17478,7 @@
         <v>20</v>
       </c>
       <c r="H249">
-        <f>IF(E249=$D$2,INT(G249/2.23)+F249,F249)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J249">
@@ -17529,7 +17529,7 @@
         <v>176</v>
       </c>
       <c r="H250">
-        <f>IF(E250=$D$2,INT(G250/2.23)+F250,F250)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="J250">
@@ -17580,7 +17580,7 @@
         <v>17</v>
       </c>
       <c r="H251">
-        <f>IF(E251=$D$2,INT(G251/2.23)+F251,F251)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J251">
@@ -17631,7 +17631,7 @@
         <v>46</v>
       </c>
       <c r="H252">
-        <f>IF(E252=$D$2,INT(G252/2.23)+F252,F252)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J252">
@@ -17682,7 +17682,7 @@
         <v>13</v>
       </c>
       <c r="H253">
-        <f>IF(E253=$D$2,INT(G253/2.23)+F253,F253)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J253">
@@ -17733,7 +17733,7 @@
         <v>19</v>
       </c>
       <c r="H254">
-        <f>IF(E254=$D$2,INT(G254/2.23)+F254,F254)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J254">
@@ -17784,7 +17784,7 @@
         <v>12</v>
       </c>
       <c r="H255">
-        <f>IF(E255=$D$2,INT(G255/2.23)+F255,F255)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J255">
@@ -17835,7 +17835,7 @@
         <v>44</v>
       </c>
       <c r="H256">
-        <f>IF(E256=$D$2,INT(G256/2.23)+F256,F256)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J256">
@@ -17886,7 +17886,7 @@
         <v>19</v>
       </c>
       <c r="H257">
-        <f>IF(E257=$D$2,INT(G257/2.23)+F257,F257)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J257">
@@ -17937,7 +17937,7 @@
         <v>7</v>
       </c>
       <c r="H258">
-        <f>IF(E258=$D$2,INT(G258/2.23)+F258,F258)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="J258">
@@ -17988,7 +17988,7 @@
         <v>7</v>
       </c>
       <c r="H259">
-        <f>IF(E259=$D$2,INT(G259/2.23)+F259,F259)</f>
+        <f t="shared" ref="H259:H322" si="4">IF(E259="Residential",INT(G259/2.23)+F259,F259)</f>
         <v>2</v>
       </c>
       <c r="J259">
@@ -18039,7 +18039,7 @@
         <v>7</v>
       </c>
       <c r="H260">
-        <f>IF(E260=$D$2,INT(G260/2.23)+F260,F260)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J260">
@@ -18090,7 +18090,7 @@
         <v>7</v>
       </c>
       <c r="H261">
-        <f>IF(E261=$D$2,INT(G261/2.23)+F261,F261)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J261">
@@ -18141,7 +18141,7 @@
         <v>32</v>
       </c>
       <c r="H262">
-        <f>IF(E262=$D$2,INT(G262/2.23)+F262,F262)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J262">
@@ -18192,7 +18192,7 @@
         <v>19</v>
       </c>
       <c r="H263">
-        <f>IF(E263=$D$2,INT(G263/2.23)+F263,F263)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J263">
@@ -18243,7 +18243,7 @@
         <v>7</v>
       </c>
       <c r="H264">
-        <f>IF(E264=$D$2,INT(G264/2.23)+F264,F264)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J264">
@@ -18294,7 +18294,7 @@
         <v>30</v>
       </c>
       <c r="H265">
-        <f>IF(E265=$D$2,INT(G265/2.23)+F265,F265)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J265">
@@ -18345,7 +18345,7 @@
         <v>7</v>
       </c>
       <c r="H266">
-        <f>IF(E266=$D$2,INT(G266/2.23)+F266,F266)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J266">
@@ -18396,7 +18396,7 @@
         <v>10</v>
       </c>
       <c r="H267">
-        <f>IF(E267=$D$2,INT(G267/2.23)+F267,F267)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J267">
@@ -18447,7 +18447,7 @@
         <v>10</v>
       </c>
       <c r="H268">
-        <f>IF(E268=$D$2,INT(G268/2.23)+F268,F268)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J268">
@@ -18498,7 +18498,7 @@
         <v>19</v>
       </c>
       <c r="H269">
-        <f>IF(E269=$D$2,INT(G269/2.23)+F269,F269)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J269">
@@ -18549,7 +18549,7 @@
         <v>7</v>
       </c>
       <c r="H270">
-        <f>IF(E270=$D$2,INT(G270/2.23)+F270,F270)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J270">
@@ -18600,7 +18600,7 @@
         <v>10</v>
       </c>
       <c r="H271">
-        <f>IF(E271=$D$2,INT(G271/2.23)+F271,F271)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J271">
@@ -18651,7 +18651,7 @@
         <v>19</v>
       </c>
       <c r="H272">
-        <f>IF(E272=$D$2,INT(G272/2.23)+F272,F272)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="J272">
@@ -18702,7 +18702,7 @@
         <v>31</v>
       </c>
       <c r="H273">
-        <f>IF(E273=$D$2,INT(G273/2.23)+F273,F273)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J273">
@@ -18753,7 +18753,7 @@
         <v>31</v>
       </c>
       <c r="H274">
-        <f>IF(E274=$D$2,INT(G274/2.23)+F274,F274)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J274">
@@ -18804,7 +18804,7 @@
         <v>26</v>
       </c>
       <c r="H275">
-        <f>IF(E275=$D$2,INT(G275/2.23)+F275,F275)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J275">
@@ -18855,7 +18855,7 @@
         <v>77</v>
       </c>
       <c r="H276">
-        <f>IF(E276=$D$2,INT(G276/2.23)+F276,F276)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J276">
@@ -18906,7 +18906,7 @@
         <v>73</v>
       </c>
       <c r="H277">
-        <f>IF(E277=$D$2,INT(G277/2.23)+F277,F277)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J277">
@@ -18957,7 +18957,7 @@
         <v>37</v>
       </c>
       <c r="H278">
-        <f>IF(E278=$D$2,INT(G278/2.23)+F278,F278)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J278">
@@ -19008,7 +19008,7 @@
         <v>7</v>
       </c>
       <c r="H279">
-        <f>IF(E279=$D$2,INT(G279/2.23)+F279,F279)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J279">
@@ -19059,8 +19059,8 @@
         <v>16</v>
       </c>
       <c r="H280">
-        <f>IF(E280=$D$2,INT(G280/2.23)+F280,F280)</f>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="J280">
         <v>51.048000000000002</v>
@@ -19110,8 +19110,8 @@
         <v>35</v>
       </c>
       <c r="H281">
-        <f>IF(E281=$D$2,INT(G281/2.23)+F281,F281)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="J281">
         <v>10.202999999999999</v>
@@ -19161,8 +19161,8 @@
         <v>10</v>
       </c>
       <c r="H282">
-        <f>IF(E282=$D$2,INT(G282/2.23)+F282,F282)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="J282">
         <v>31.257999999999999</v>
@@ -19212,8 +19212,8 @@
         <v>9</v>
       </c>
       <c r="H283">
-        <f>IF(E283=$D$2,INT(G283/2.23)+F283,F283)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="J283">
         <v>29.486000000000001</v>
@@ -19263,8 +19263,8 @@
         <v>28</v>
       </c>
       <c r="H284">
-        <f>IF(E284=$D$2,INT(G284/2.23)+F284,F284)</f>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="J284">
         <v>87.78</v>
@@ -19314,8 +19314,8 @@
         <v>23</v>
       </c>
       <c r="H285">
-        <f>IF(E285=$D$2,INT(G285/2.23)+F285,F285)</f>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="J285">
         <v>71.775999999999996</v>
@@ -19365,8 +19365,8 @@
         <v>19</v>
       </c>
       <c r="H286">
-        <f>IF(E286=$D$2,INT(G286/2.23)+F286,F286)</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="J286">
         <v>59.997</v>
@@ -19416,8 +19416,8 @@
         <v>16</v>
       </c>
       <c r="H287">
-        <f>IF(E287=$D$2,INT(G287/2.23)+F287,F287)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J287">
         <v>33.326000000000001</v>
@@ -19467,8 +19467,8 @@
         <v>11</v>
       </c>
       <c r="H288">
-        <f>IF(E288=$D$2,INT(G288/2.23)+F288,F288)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="J288">
         <v>23.262</v>
@@ -19518,8 +19518,8 @@
         <v>6</v>
       </c>
       <c r="H289">
-        <f>IF(E289=$D$2,INT(G289/2.23)+F289,F289)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="J289">
         <v>21.023</v>
@@ -19569,8 +19569,8 @@
         <v>21</v>
       </c>
       <c r="H290">
-        <f>IF(E290=$D$2,INT(G290/2.23)+F290,F290)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="J290">
         <v>44.332000000000001</v>
@@ -19620,8 +19620,8 @@
         <v>35</v>
       </c>
       <c r="H291">
-        <f>IF(E291=$D$2,INT(G291/2.23)+F291,F291)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="J291">
         <v>72.802000000000007</v>
@@ -19671,8 +19671,8 @@
         <v>16</v>
       </c>
       <c r="H292">
-        <f>IF(E292=$D$2,INT(G292/2.23)+F292,F292)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J292">
         <v>32.712000000000003</v>
@@ -19722,8 +19722,8 @@
         <v>19</v>
       </c>
       <c r="H293">
-        <f>IF(E293=$D$2,INT(G293/2.23)+F293,F293)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="J293">
         <v>39.731999999999999</v>
@@ -19773,8 +19773,8 @@
         <v>76</v>
       </c>
       <c r="H294">
-        <f>IF(E294=$D$2,INT(G294/2.23)+F294,F294)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>35</v>
       </c>
       <c r="J294">
         <v>42.853000000000002</v>
@@ -19824,8 +19824,8 @@
         <v>46</v>
       </c>
       <c r="H295">
-        <f>IF(E295=$D$2,INT(G295/2.23)+F295,F295)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="J295">
         <v>96.435000000000002</v>
@@ -19875,8 +19875,8 @@
         <v>12</v>
       </c>
       <c r="H296">
-        <f>IF(E296=$D$2,INT(G296/2.23)+F296,F296)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J296">
         <v>24.273</v>
@@ -19926,8 +19926,8 @@
         <v>15</v>
       </c>
       <c r="H297">
-        <f>IF(E297=$D$2,INT(G297/2.23)+F297,F297)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="J297">
         <v>32.402999999999999</v>
@@ -19977,8 +19977,8 @@
         <v>24</v>
       </c>
       <c r="H298">
-        <f>IF(E298=$D$2,INT(G298/2.23)+F298,F298)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="J298">
         <v>49.69</v>
@@ -20028,8 +20028,8 @@
         <v>424</v>
       </c>
       <c r="H299">
-        <f>IF(E299=$D$2,INT(G299/2.23)+F299,F299)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>191</v>
       </c>
       <c r="J299">
         <v>59.216000000000001</v>
@@ -20079,8 +20079,8 @@
         <v>37</v>
       </c>
       <c r="H300">
-        <f>IF(E300=$D$2,INT(G300/2.23)+F300,F300)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="J300">
         <v>10.448</v>
@@ -20130,8 +20130,8 @@
         <v>40</v>
       </c>
       <c r="H301">
-        <f>IF(E301=$D$2,INT(G301/2.23)+F301,F301)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="J301">
         <v>23.3</v>
@@ -20181,8 +20181,8 @@
         <v>12</v>
       </c>
       <c r="H302">
-        <f>IF(E302=$D$2,INT(G302/2.23)+F302,F302)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J302">
         <v>10.832000000000001</v>
@@ -20232,8 +20232,8 @@
         <v>42</v>
       </c>
       <c r="H303">
-        <f>IF(E303=$D$2,INT(G303/2.23)+F303,F303)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="J303">
         <v>88.442999999999998</v>
@@ -20283,8 +20283,8 @@
         <v>25</v>
       </c>
       <c r="H304">
-        <f>IF(E304=$D$2,INT(G304/2.23)+F304,F304)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="J304">
         <v>51.274000000000001</v>
@@ -20334,8 +20334,8 @@
         <v>20</v>
       </c>
       <c r="H305">
-        <f>IF(E305=$D$2,INT(G305/2.23)+F305,F305)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="J305">
         <v>40.956000000000003</v>
@@ -20385,8 +20385,8 @@
         <v>20</v>
       </c>
       <c r="H306">
-        <f>IF(E306=$D$2,INT(G306/2.23)+F306,F306)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="J306">
         <v>41.244999999999997</v>
@@ -20436,8 +20436,8 @@
         <v>24</v>
       </c>
       <c r="H307">
-        <f>IF(E307=$D$2,INT(G307/2.23)+F307,F307)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
       <c r="J307">
         <v>51.142000000000003</v>
@@ -20487,8 +20487,8 @@
         <v>33</v>
       </c>
       <c r="H308">
-        <f>IF(E308=$D$2,INT(G308/2.23)+F308,F308)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="J308">
         <v>68.454999999999998</v>
@@ -20538,8 +20538,8 @@
         <v>29</v>
       </c>
       <c r="H309">
-        <f>IF(E309=$D$2,INT(G309/2.23)+F309,F309)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="J309">
         <v>60.904000000000003</v>
@@ -20589,8 +20589,8 @@
         <v>68</v>
       </c>
       <c r="H310">
-        <f>IF(E310=$D$2,INT(G310/2.23)+F310,F310)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>33</v>
       </c>
       <c r="J310">
         <v>57.55</v>
@@ -20640,8 +20640,8 @@
         <v>18</v>
       </c>
       <c r="H311">
-        <f>IF(E311=$D$2,INT(G311/2.23)+F311,F311)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="J311">
         <v>37.975999999999999</v>
@@ -20691,8 +20691,8 @@
         <v>9</v>
       </c>
       <c r="H312">
-        <f>IF(E312=$D$2,INT(G312/2.23)+F312,F312)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J312">
         <v>28</v>
@@ -20742,8 +20742,8 @@
         <v>18</v>
       </c>
       <c r="H313">
-        <f>IF(E313=$D$2,INT(G313/2.23)+F313,F313)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="J313">
         <v>38.445999999999998</v>
@@ -20793,8 +20793,8 @@
         <v>9</v>
       </c>
       <c r="H314">
-        <f>IF(E314=$D$2,INT(G314/2.23)+F314,F314)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J314">
         <v>28.27</v>
@@ -20844,8 +20844,8 @@
         <v>18</v>
       </c>
       <c r="H315">
-        <f>IF(E315=$D$2,INT(G315/2.23)+F315,F315)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="J315">
         <v>44.715000000000003</v>
@@ -20895,8 +20895,8 @@
         <v>25</v>
       </c>
       <c r="H316">
-        <f>IF(E316=$D$2,INT(G316/2.23)+F316,F316)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="J316">
         <v>52.688000000000002</v>
@@ -20946,8 +20946,8 @@
         <v>13</v>
       </c>
       <c r="H317">
-        <f>IF(E317=$D$2,INT(G317/2.23)+F317,F317)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J317">
         <v>27.962</v>
@@ -20997,8 +20997,8 @@
         <v>24</v>
       </c>
       <c r="H318">
-        <f>IF(E318=$D$2,INT(G318/2.23)+F318,F318)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="J318">
         <v>50.027000000000001</v>
@@ -21048,8 +21048,8 @@
         <v>11</v>
       </c>
       <c r="H319">
-        <f>IF(E319=$D$2,INT(G319/2.23)+F319,F319)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="J319">
         <v>34.921999999999997</v>
@@ -21099,8 +21099,8 @@
         <v>9</v>
       </c>
       <c r="H320">
-        <f>IF(E320=$D$2,INT(G320/2.23)+F320,F320)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="J320">
         <v>27.931000000000001</v>
@@ -21150,8 +21150,8 @@
         <v>13</v>
       </c>
       <c r="H321">
-        <f>IF(E321=$D$2,INT(G321/2.23)+F321,F321)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="J321">
         <v>42.030999999999999</v>
@@ -21201,8 +21201,8 @@
         <v>32</v>
       </c>
       <c r="H322">
-        <f>IF(E322=$D$2,INT(G322/2.23)+F322,F322)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="J322">
         <v>67.537000000000006</v>
@@ -21252,8 +21252,8 @@
         <v>32</v>
       </c>
       <c r="H323">
-        <f>IF(E323=$D$2,INT(G323/2.23)+F323,F323)</f>
-        <v>1</v>
+        <f t="shared" ref="H323:H386" si="5">IF(E323="Residential",INT(G323/2.23)+F323,F323)</f>
+        <v>15</v>
       </c>
       <c r="J323">
         <v>66.036000000000001</v>
@@ -21303,8 +21303,8 @@
         <v>43</v>
       </c>
       <c r="H324">
-        <f>IF(E324=$D$2,INT(G324/2.23)+F324,F324)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="J324">
         <v>89.980999999999995</v>
@@ -21354,8 +21354,8 @@
         <v>11</v>
       </c>
       <c r="H325">
-        <f>IF(E325=$D$2,INT(G325/2.23)+F325,F325)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="J325">
         <v>22.928999999999998</v>
@@ -21405,8 +21405,8 @@
         <v>16</v>
       </c>
       <c r="H326">
-        <f>IF(E326=$D$2,INT(G326/2.23)+F326,F326)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="J326">
         <v>34.777999999999999</v>
@@ -21456,8 +21456,8 @@
         <v>24</v>
       </c>
       <c r="H327">
-        <f>IF(E327=$D$2,INT(G327/2.23)+F327,F327)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J327">
         <v>50.374000000000002</v>
@@ -21507,8 +21507,8 @@
         <v>9</v>
       </c>
       <c r="H328">
-        <f>IF(E328=$D$2,INT(G328/2.23)+F328,F328)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="J328">
         <v>29.323</v>
@@ -21558,8 +21558,8 @@
         <v>9</v>
       </c>
       <c r="H329">
-        <f>IF(E329=$D$2,INT(G329/2.23)+F329,F329)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="J329">
         <v>19.088000000000001</v>
@@ -21609,8 +21609,8 @@
         <v>26</v>
       </c>
       <c r="H330">
-        <f>IF(E330=$D$2,INT(G330/2.23)+F330,F330)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J330">
         <v>54.924999999999997</v>
@@ -21660,8 +21660,8 @@
         <v>4</v>
       </c>
       <c r="H331">
-        <f>IF(E331=$D$2,INT(G331/2.23)+F331,F331)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="J331">
         <v>13.326000000000001</v>
@@ -21711,8 +21711,8 @@
         <v>14</v>
       </c>
       <c r="H332">
-        <f>IF(E332=$D$2,INT(G332/2.23)+F332,F332)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="J332">
         <v>28.832000000000001</v>
@@ -21762,8 +21762,8 @@
         <v>28</v>
       </c>
       <c r="H333">
-        <f>IF(E333=$D$2,INT(G333/2.23)+F333,F333)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="J333">
         <v>58.963000000000001</v>
@@ -21813,8 +21813,8 @@
         <v>17</v>
       </c>
       <c r="H334">
-        <f>IF(E334=$D$2,INT(G334/2.23)+F334,F334)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="J334">
         <v>36.21</v>
@@ -21864,8 +21864,8 @@
         <v>11</v>
       </c>
       <c r="H335">
-        <f>IF(E335=$D$2,INT(G335/2.23)+F335,F335)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="J335">
         <v>33.234999999999999</v>
@@ -21915,8 +21915,8 @@
         <v>16</v>
       </c>
       <c r="H336">
-        <f>IF(E336=$D$2,INT(G336/2.23)+F336,F336)</f>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J336">
         <v>51.682000000000002</v>
@@ -21966,8 +21966,8 @@
         <v>38</v>
       </c>
       <c r="H337">
-        <f>IF(E337=$D$2,INT(G337/2.23)+F337,F337)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="J337">
         <v>80.004000000000005</v>
@@ -22017,8 +22017,8 @@
         <v>37</v>
       </c>
       <c r="H338">
-        <f>IF(E338=$D$2,INT(G338/2.23)+F338,F338)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="J338">
         <v>81.055999999999997</v>
@@ -22068,8 +22068,8 @@
         <v>22</v>
       </c>
       <c r="H339">
-        <f>IF(E339=$D$2,INT(G339/2.23)+F339,F339)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="J339">
         <v>46.2</v>
@@ -22119,8 +22119,8 @@
         <v>46</v>
       </c>
       <c r="H340">
-        <f>IF(E340=$D$2,INT(G340/2.23)+F340,F340)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="J340">
         <v>95.207999999999998</v>
@@ -22170,8 +22170,8 @@
         <v>23</v>
       </c>
       <c r="H341">
-        <f>IF(E341=$D$2,INT(G341/2.23)+F341,F341)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="J341">
         <v>48.415999999999997</v>
@@ -22221,8 +22221,8 @@
         <v>31</v>
       </c>
       <c r="H342">
-        <f>IF(E342=$D$2,INT(G342/2.23)+F342,F342)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="J342">
         <v>64.638000000000005</v>
@@ -22272,8 +22272,8 @@
         <v>38</v>
       </c>
       <c r="H343">
-        <f>IF(E343=$D$2,INT(G343/2.23)+F343,F343)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="J343">
         <v>78.622</v>
@@ -22323,8 +22323,8 @@
         <v>12</v>
       </c>
       <c r="H344">
-        <f>IF(E344=$D$2,INT(G344/2.23)+F344,F344)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="J344">
         <v>25.268999999999998</v>
@@ -22374,8 +22374,8 @@
         <v>24</v>
       </c>
       <c r="H345">
-        <f>IF(E345=$D$2,INT(G345/2.23)+F345,F345)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="J345">
         <v>50.720999999999997</v>
@@ -22425,8 +22425,8 @@
         <v>35</v>
       </c>
       <c r="H346">
-        <f>IF(E346=$D$2,INT(G346/2.23)+F346,F346)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="J346">
         <v>73.932000000000002</v>
@@ -22476,8 +22476,8 @@
         <v>8</v>
       </c>
       <c r="H347">
-        <f>IF(E347=$D$2,INT(G347/2.23)+F347,F347)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="J347">
         <v>24.565000000000001</v>
@@ -22527,8 +22527,8 @@
         <v>26</v>
       </c>
       <c r="H348">
-        <f>IF(E348=$D$2,INT(G348/2.23)+F348,F348)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J348">
         <v>53.462000000000003</v>
@@ -22578,8 +22578,8 @@
         <v>22</v>
       </c>
       <c r="H349">
-        <f>IF(E349=$D$2,INT(G349/2.23)+F349,F349)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="J349">
         <v>47</v>
@@ -22629,8 +22629,8 @@
         <v>42</v>
       </c>
       <c r="H350">
-        <f>IF(E350=$D$2,INT(G350/2.23)+F350,F350)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="J350">
         <v>86.878</v>
@@ -22680,7 +22680,7 @@
         <v>7</v>
       </c>
       <c r="H351">
-        <f>IF(E351=$D$2,INT(G351/2.23)+F351,F351)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J351">
@@ -22731,7 +22731,7 @@
         <v>32</v>
       </c>
       <c r="H352">
-        <f>IF(E352=$D$2,INT(G352/2.23)+F352,F352)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J352">
@@ -22782,7 +22782,7 @@
         <v>29</v>
       </c>
       <c r="H353">
-        <f>IF(E353=$D$2,INT(G353/2.23)+F353,F353)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J353">
@@ -22833,7 +22833,7 @@
         <v>18</v>
       </c>
       <c r="H354">
-        <f>IF(E354=$D$2,INT(G354/2.23)+F354,F354)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J354">
@@ -22884,7 +22884,7 @@
         <v>11</v>
       </c>
       <c r="H355">
-        <f>IF(E355=$D$2,INT(G355/2.23)+F355,F355)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="J355">
@@ -22935,7 +22935,7 @@
         <v>12</v>
       </c>
       <c r="H356">
-        <f>IF(E356=$D$2,INT(G356/2.23)+F356,F356)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J356">
@@ -22986,7 +22986,7 @@
         <v>40</v>
       </c>
       <c r="H357">
-        <f>IF(E357=$D$2,INT(G357/2.23)+F357,F357)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J357">
@@ -23037,8 +23037,8 @@
         <v>54</v>
       </c>
       <c r="H358">
-        <f>IF(E358=$D$2,INT(G358/2.23)+F358,F358)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="J358">
         <v>88.308000000000007</v>
@@ -23088,8 +23088,8 @@
         <v>287</v>
       </c>
       <c r="H359">
-        <f>IF(E359=$D$2,INT(G359/2.23)+F359,F359)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>129</v>
       </c>
       <c r="J359">
         <v>84.474999999999994</v>
@@ -23139,8 +23139,8 @@
         <v>25</v>
       </c>
       <c r="H360">
-        <f>IF(E360=$D$2,INT(G360/2.23)+F360,F360)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J360">
         <v>52.329000000000001</v>
@@ -23190,8 +23190,8 @@
         <v>21</v>
       </c>
       <c r="H361">
-        <f>IF(E361=$D$2,INT(G361/2.23)+F361,F361)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="J361">
         <v>43.734000000000002</v>
@@ -23241,8 +23241,8 @@
         <v>53</v>
       </c>
       <c r="H362">
-        <f>IF(E362=$D$2,INT(G362/2.23)+F362,F362)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="J362">
         <v>16.562999999999999</v>
@@ -23292,8 +23292,8 @@
         <v>22</v>
       </c>
       <c r="H363">
-        <f>IF(E363=$D$2,INT(G363/2.23)+F363,F363)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="J363">
         <v>46.86</v>
@@ -23343,8 +23343,8 @@
         <v>33</v>
       </c>
       <c r="H364">
-        <f>IF(E364=$D$2,INT(G364/2.23)+F364,F364)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J364">
         <v>69.777000000000001</v>
@@ -23394,8 +23394,8 @@
         <v>23</v>
       </c>
       <c r="H365">
-        <f>IF(E365=$D$2,INT(G365/2.23)+F365,F365)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="J365">
         <v>48.8</v>
@@ -23445,8 +23445,8 @@
         <v>26</v>
       </c>
       <c r="H366">
-        <f>IF(E366=$D$2,INT(G366/2.23)+F366,F366)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="J366">
         <v>7.5970000000000004</v>
@@ -23496,8 +23496,8 @@
         <v>10</v>
       </c>
       <c r="H367">
-        <f>IF(E367=$D$2,INT(G367/2.23)+F367,F367)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="J367">
         <v>32.01</v>
@@ -23547,8 +23547,8 @@
         <v>8</v>
       </c>
       <c r="H368">
-        <f>IF(E368=$D$2,INT(G368/2.23)+F368,F368)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="J368">
         <v>9.6479999999999997</v>
@@ -23598,8 +23598,8 @@
         <v>32</v>
       </c>
       <c r="H369">
-        <f>IF(E369=$D$2,INT(G369/2.23)+F369,F369)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J369">
         <v>67.52</v>
@@ -23649,8 +23649,8 @@
         <v>13</v>
       </c>
       <c r="H370">
-        <f>IF(E370=$D$2,INT(G370/2.23)+F370,F370)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="J370">
         <v>27.012</v>
@@ -23700,8 +23700,8 @@
         <v>33</v>
       </c>
       <c r="H371">
-        <f>IF(E371=$D$2,INT(G371/2.23)+F371,F371)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J371">
         <v>68.616</v>
@@ -23751,8 +23751,8 @@
         <v>9</v>
       </c>
       <c r="H372">
-        <f>IF(E372=$D$2,INT(G372/2.23)+F372,F372)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="J372">
         <v>27.978999999999999</v>
@@ -23802,8 +23802,8 @@
         <v>37</v>
       </c>
       <c r="H373">
-        <f>IF(E373=$D$2,INT(G373/2.23)+F373,F373)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="J373">
         <v>78.227000000000004</v>
@@ -23853,8 +23853,8 @@
         <v>7</v>
       </c>
       <c r="H374">
-        <f>IF(E374=$D$2,INT(G374/2.23)+F374,F374)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="J374">
         <v>23.306000000000001</v>
@@ -23904,8 +23904,8 @@
         <v>8</v>
       </c>
       <c r="H375">
-        <f>IF(E375=$D$2,INT(G375/2.23)+F375,F375)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="J375">
         <v>17.303000000000001</v>
@@ -23955,8 +23955,8 @@
         <v>11</v>
       </c>
       <c r="H376">
-        <f>IF(E376=$D$2,INT(G376/2.23)+F376,F376)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="J376">
         <v>22.254999999999999</v>
@@ -24006,8 +24006,8 @@
         <v>42</v>
       </c>
       <c r="H377">
-        <f>IF(E377=$D$2,INT(G377/2.23)+F377,F377)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="J377">
         <v>87.887</v>
@@ -24057,8 +24057,8 @@
         <v>11</v>
       </c>
       <c r="H378">
-        <f>IF(E378=$D$2,INT(G378/2.23)+F378,F378)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="J378">
         <v>34.838999999999999</v>
@@ -24108,8 +24108,8 @@
         <v>29</v>
       </c>
       <c r="H379">
-        <f>IF(E379=$D$2,INT(G379/2.23)+F379,F379)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="J379">
         <v>59.734000000000002</v>
@@ -24159,8 +24159,8 @@
         <v>32</v>
       </c>
       <c r="H380">
-        <f>IF(E380=$D$2,INT(G380/2.23)+F380,F380)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="J380">
         <v>67.376000000000005</v>
@@ -24210,8 +24210,8 @@
         <v>35</v>
       </c>
       <c r="H381">
-        <f>IF(E381=$D$2,INT(G381/2.23)+F381,F381)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="J381">
         <v>72.191999999999993</v>
@@ -24261,8 +24261,8 @@
         <v>263</v>
       </c>
       <c r="H382">
-        <f>IF(E382=$D$2,INT(G382/2.23)+F382,F382)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>118</v>
       </c>
       <c r="J382">
         <v>15.93</v>
@@ -24312,8 +24312,8 @@
         <v>28</v>
       </c>
       <c r="H383">
-        <f>IF(E383=$D$2,INT(G383/2.23)+F383,F383)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="J383">
         <v>59.555999999999997</v>
@@ -24363,8 +24363,8 @@
         <v>19</v>
       </c>
       <c r="H384">
-        <f>IF(E384=$D$2,INT(G384/2.23)+F384,F384)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="J384">
         <v>39.253999999999998</v>
@@ -24414,8 +24414,8 @@
         <v>10</v>
       </c>
       <c r="H385">
-        <f>IF(E385=$D$2,INT(G385/2.23)+F385,F385)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="J385">
         <v>31.361999999999998</v>
@@ -24465,8 +24465,8 @@
         <v>38</v>
       </c>
       <c r="H386">
-        <f>IF(E386=$D$2,INT(G386/2.23)+F386,F386)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="J386">
         <v>78.515000000000001</v>
@@ -24516,8 +24516,8 @@
         <v>28</v>
       </c>
       <c r="H387">
-        <f>IF(E387=$D$2,INT(G387/2.23)+F387,F387)</f>
-        <v>2</v>
+        <f t="shared" ref="H387:H450" si="6">IF(E387="Residential",INT(G387/2.23)+F387,F387)</f>
+        <v>14</v>
       </c>
       <c r="J387">
         <v>57.948999999999998</v>
@@ -24567,8 +24567,8 @@
         <v>46</v>
       </c>
       <c r="H388">
-        <f>IF(E388=$D$2,INT(G388/2.23)+F388,F388)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="J388">
         <v>96.495999999999995</v>
@@ -24618,8 +24618,8 @@
         <v>7</v>
       </c>
       <c r="H389">
-        <f>IF(E389=$D$2,INT(G389/2.23)+F389,F389)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="J389">
         <v>22.655000000000001</v>
@@ -24669,8 +24669,8 @@
         <v>29</v>
       </c>
       <c r="H390">
-        <f>IF(E390=$D$2,INT(G390/2.23)+F390,F390)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="J390">
         <v>60.84</v>
@@ -24720,8 +24720,8 @@
         <v>13</v>
       </c>
       <c r="H391">
-        <f>IF(E391=$D$2,INT(G391/2.23)+F391,F391)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="J391">
         <v>26.948</v>
@@ -24771,8 +24771,8 @@
         <v>21</v>
       </c>
       <c r="H392">
-        <f>IF(E392=$D$2,INT(G392/2.23)+F392,F392)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>11</v>
       </c>
       <c r="J392">
         <v>44.482999999999997</v>
@@ -24822,8 +24822,8 @@
         <v>44</v>
       </c>
       <c r="H393">
-        <f>IF(E393=$D$2,INT(G393/2.23)+F393,F393)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="J393">
         <v>92.427999999999997</v>
@@ -24873,8 +24873,8 @@
         <v>27</v>
       </c>
       <c r="H394">
-        <f>IF(E394=$D$2,INT(G394/2.23)+F394,F394)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
       <c r="J394">
         <v>56.728999999999999</v>
@@ -24924,8 +24924,8 @@
         <v>7</v>
       </c>
       <c r="H395">
-        <f>IF(E395=$D$2,INT(G395/2.23)+F395,F395)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="J395">
         <v>22.538</v>
@@ -24975,7 +24975,7 @@
         <v>544</v>
       </c>
       <c r="H396">
-        <f>IF(E396=$D$2,INT(G396/2.23)+F396,F396)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J396">
@@ -25026,7 +25026,7 @@
         <v>25</v>
       </c>
       <c r="H397">
-        <f>IF(E397=$D$2,INT(G397/2.23)+F397,F397)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J397">
@@ -25077,7 +25077,7 @@
         <v>14</v>
       </c>
       <c r="H398">
-        <f>IF(E398=$D$2,INT(G398/2.23)+F398,F398)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J398">
@@ -25128,8 +25128,8 @@
         <v>29</v>
       </c>
       <c r="H399">
-        <f>IF(E399=$D$2,INT(G399/2.23)+F399,F399)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="J399">
         <v>60.853000000000002</v>
@@ -25179,8 +25179,8 @@
         <v>23</v>
       </c>
       <c r="H400">
-        <f>IF(E400=$D$2,INT(G400/2.23)+F400,F400)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="J400">
         <v>47.445</v>
@@ -25230,8 +25230,8 @@
         <v>25</v>
       </c>
       <c r="H401">
-        <f>IF(E401=$D$2,INT(G401/2.23)+F401,F401)</f>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="J401">
         <v>44</v>
@@ -25281,8 +25281,8 @@
         <v>19</v>
       </c>
       <c r="H402">
-        <f>IF(E402=$D$2,INT(G402/2.23)+F402,F402)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="J402">
         <v>40.079000000000001</v>
@@ -25332,8 +25332,8 @@
         <v>79</v>
       </c>
       <c r="H403">
-        <f>IF(E403=$D$2,INT(G403/2.23)+F403,F403)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
       <c r="J403">
         <v>14.249000000000001</v>
@@ -25383,8 +25383,8 @@
         <v>47</v>
       </c>
       <c r="H404">
-        <f>IF(E404=$D$2,INT(G404/2.23)+F404,F404)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>23</v>
       </c>
       <c r="J404">
         <v>99.134</v>
@@ -25434,7 +25434,7 @@
         <v>84</v>
       </c>
       <c r="H405">
-        <f>IF(E405=$D$2,INT(G405/2.23)+F405,F405)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="J405">
@@ -25485,7 +25485,7 @@
         <v>32</v>
       </c>
       <c r="H406">
-        <f>IF(E406=$D$2,INT(G406/2.23)+F406,F406)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J406">
@@ -25536,7 +25536,7 @@
         <v>19</v>
       </c>
       <c r="H407">
-        <f>IF(E407=$D$2,INT(G407/2.23)+F407,F407)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J407">
@@ -25587,7 +25587,7 @@
         <v>28</v>
       </c>
       <c r="H408">
-        <f>IF(E408=$D$2,INT(G408/2.23)+F408,F408)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J408">
@@ -25638,7 +25638,7 @@
         <v>21</v>
       </c>
       <c r="H409">
-        <f>IF(E409=$D$2,INT(G409/2.23)+F409,F409)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J409">
@@ -25689,7 +25689,7 @@
         <v>36</v>
       </c>
       <c r="H410">
-        <f>IF(E410=$D$2,INT(G410/2.23)+F410,F410)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J410">
@@ -25740,8 +25740,8 @@
         <v>40</v>
       </c>
       <c r="H411">
-        <f>IF(E411=$D$2,INT(G411/2.23)+F411,F411)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="J411">
         <v>84.099000000000004</v>
@@ -25791,8 +25791,8 @@
         <v>271</v>
       </c>
       <c r="H412">
-        <f>IF(E412=$D$2,INT(G412/2.23)+F412,F412)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>122</v>
       </c>
       <c r="J412">
         <v>16.433</v>
@@ -25842,8 +25842,8 @@
         <v>62</v>
       </c>
       <c r="H413">
-        <f>IF(E413=$D$2,INT(G413/2.23)+F413,F413)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="J413">
         <v>75.319000000000003</v>
@@ -25893,8 +25893,8 @@
         <v>39</v>
       </c>
       <c r="H414">
-        <f>IF(E414=$D$2,INT(G414/2.23)+F414,F414)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="J414">
         <v>81.611000000000004</v>
@@ -25944,8 +25944,8 @@
         <v>16</v>
       </c>
       <c r="H415">
-        <f>IF(E415=$D$2,INT(G415/2.23)+F415,F415)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="J415">
         <v>33.223999999999997</v>
@@ -25995,8 +25995,8 @@
         <v>35</v>
       </c>
       <c r="H416">
-        <f>IF(E416=$D$2,INT(G416/2.23)+F416,F416)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="J416">
         <v>73.629000000000005</v>
@@ -26046,8 +26046,8 @@
         <v>26</v>
       </c>
       <c r="H417">
-        <f>IF(E417=$D$2,INT(G417/2.23)+F417,F417)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="J417">
         <v>55.183</v>
@@ -26097,8 +26097,8 @@
         <v>34</v>
       </c>
       <c r="H418">
-        <f>IF(E418=$D$2,INT(G418/2.23)+F418,F418)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="J418">
         <v>71.947999999999993</v>
@@ -26148,8 +26148,8 @@
         <v>25</v>
       </c>
       <c r="H419">
-        <f>IF(E419=$D$2,INT(G419/2.23)+F419,F419)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="J419">
         <v>52.35</v>
@@ -26199,8 +26199,8 @@
         <v>46</v>
       </c>
       <c r="H420">
-        <f>IF(E420=$D$2,INT(G420/2.23)+F420,F420)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="J420">
         <v>96.465999999999994</v>
@@ -26250,8 +26250,8 @@
         <v>16</v>
       </c>
       <c r="H421">
-        <f>IF(E421=$D$2,INT(G421/2.23)+F421,F421)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="J421">
         <v>34.514000000000003</v>
@@ -26301,8 +26301,8 @@
         <v>46</v>
       </c>
       <c r="H422">
-        <f>IF(E422=$D$2,INT(G422/2.23)+F422,F422)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="J422">
         <v>95.671999999999997</v>
@@ -26352,8 +26352,8 @@
         <v>74</v>
       </c>
       <c r="H423">
-        <f>IF(E423=$D$2,INT(G423/2.23)+F423,F423)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>34</v>
       </c>
       <c r="J423">
         <v>23.11</v>
@@ -26403,8 +26403,8 @@
         <v>41</v>
       </c>
       <c r="H424">
-        <f>IF(E424=$D$2,INT(G424/2.23)+F424,F424)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="J424">
         <v>86.652000000000001</v>
@@ -26454,8 +26454,8 @@
         <v>72</v>
       </c>
       <c r="H425">
-        <f>IF(E425=$D$2,INT(G425/2.23)+F425,F425)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="J425">
         <v>20.632999999999999</v>
@@ -26505,8 +26505,8 @@
         <v>80</v>
       </c>
       <c r="H426">
-        <f>IF(E426=$D$2,INT(G426/2.23)+F426,F426)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
       <c r="J426">
         <v>70.483999999999995</v>
@@ -26556,8 +26556,8 @@
         <v>34</v>
       </c>
       <c r="H427">
-        <f>IF(E427=$D$2,INT(G427/2.23)+F427,F427)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="J427">
         <v>70.527000000000001</v>
@@ -26607,8 +26607,8 @@
         <v>29</v>
       </c>
       <c r="H428">
-        <f>IF(E428=$D$2,INT(G428/2.23)+F428,F428)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="J428">
         <v>62.94</v>
@@ -26658,8 +26658,8 @@
         <v>30</v>
       </c>
       <c r="H429">
-        <f>IF(E429=$D$2,INT(G429/2.23)+F429,F429)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="J429">
         <v>63.356000000000002</v>
@@ -26709,8 +26709,8 @@
         <v>26</v>
       </c>
       <c r="H430">
-        <f>IF(E430=$D$2,INT(G430/2.23)+F430,F430)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="J430">
         <v>54.707999999999998</v>
@@ -26760,8 +26760,8 @@
         <v>4</v>
       </c>
       <c r="H431">
-        <f>IF(E431=$D$2,INT(G431/2.23)+F431,F431)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="J431">
         <v>11.271000000000001</v>
@@ -26811,8 +26811,8 @@
         <v>39</v>
       </c>
       <c r="H432">
-        <f>IF(E432=$D$2,INT(G432/2.23)+F432,F432)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="J432">
         <v>82.302999999999997</v>
@@ -26862,8 +26862,8 @@
         <v>29</v>
       </c>
       <c r="H433">
-        <f>IF(E433=$D$2,INT(G433/2.23)+F433,F433)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="J433">
         <v>61.688000000000002</v>
@@ -26913,8 +26913,8 @@
         <v>29</v>
       </c>
       <c r="H434">
-        <f>IF(E434=$D$2,INT(G434/2.23)+F434,F434)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="J434">
         <v>61.491999999999997</v>
@@ -26964,8 +26964,8 @@
         <v>29</v>
       </c>
       <c r="H435">
-        <f>IF(E435=$D$2,INT(G435/2.23)+F435,F435)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="J435">
         <v>61.429000000000002</v>
@@ -27015,8 +27015,8 @@
         <v>5</v>
       </c>
       <c r="H436">
-        <f>IF(E436=$D$2,INT(G436/2.23)+F436,F436)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="J436">
         <v>6.407</v>
@@ -27066,8 +27066,8 @@
         <v>31</v>
       </c>
       <c r="H437">
-        <f>IF(E437=$D$2,INT(G437/2.23)+F437,F437)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="J437">
         <v>65.141999999999996</v>
@@ -27117,8 +27117,8 @@
         <v>28</v>
       </c>
       <c r="H438">
-        <f>IF(E438=$D$2,INT(G438/2.23)+F438,F438)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="J438">
         <v>58.386000000000003</v>
@@ -27168,8 +27168,8 @@
         <v>15</v>
       </c>
       <c r="H439">
-        <f>IF(E439=$D$2,INT(G439/2.23)+F439,F439)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="J439">
         <v>31.443999999999999</v>
@@ -27219,8 +27219,8 @@
         <v>33</v>
       </c>
       <c r="H440">
-        <f>IF(E440=$D$2,INT(G440/2.23)+F440,F440)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="J440">
         <v>69.63</v>
@@ -27270,8 +27270,8 @@
         <v>15</v>
       </c>
       <c r="H441">
-        <f>IF(E441=$D$2,INT(G441/2.23)+F441,F441)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="J441">
         <v>31.58</v>
@@ -27321,8 +27321,8 @@
         <v>52</v>
       </c>
       <c r="H442">
-        <f>IF(E442=$D$2,INT(G442/2.23)+F442,F442)</f>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="J442">
         <v>52.548999999999999</v>
@@ -27372,8 +27372,8 @@
         <v>48</v>
       </c>
       <c r="H443">
-        <f>IF(E443=$D$2,INT(G443/2.23)+F443,F443)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="J443">
         <v>99.83</v>
@@ -27423,8 +27423,8 @@
         <v>30</v>
       </c>
       <c r="H444">
-        <f>IF(E444=$D$2,INT(G444/2.23)+F444,F444)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="J444">
         <v>62.575000000000003</v>
@@ -27474,8 +27474,8 @@
         <v>13</v>
       </c>
       <c r="H445">
-        <f>IF(E445=$D$2,INT(G445/2.23)+F445,F445)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="J445">
         <v>28.047000000000001</v>
@@ -27525,8 +27525,8 @@
         <v>18</v>
       </c>
       <c r="H446">
-        <f>IF(E446=$D$2,INT(G446/2.23)+F446,F446)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="J446">
         <v>37.295999999999999</v>
@@ -27576,8 +27576,8 @@
         <v>17</v>
       </c>
       <c r="H447">
-        <f>IF(E447=$D$2,INT(G447/2.23)+F447,F447)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="J447">
         <v>36.006</v>
@@ -27627,8 +27627,8 @@
         <v>8</v>
       </c>
       <c r="H448">
-        <f>IF(E448=$D$2,INT(G448/2.23)+F448,F448)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="J448">
         <v>20.303999999999998</v>
@@ -27678,8 +27678,8 @@
         <v>18</v>
       </c>
       <c r="H449">
-        <f>IF(E449=$D$2,INT(G449/2.23)+F449,F449)</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="J449">
         <v>38.435000000000002</v>
@@ -27729,8 +27729,8 @@
         <v>38</v>
       </c>
       <c r="H450">
-        <f>IF(E450=$D$2,INT(G450/2.23)+F450,F450)</f>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="J450">
         <v>46.357999999999997</v>
@@ -27780,7 +27780,7 @@
         <v>47</v>
       </c>
       <c r="H451">
-        <f>IF(E451=$D$2,INT(G451/2.23)+F451,F451)</f>
+        <f t="shared" ref="H451:H514" si="7">IF(E451="Residential",INT(G451/2.23)+F451,F451)</f>
         <v>1</v>
       </c>
       <c r="J451">
@@ -27831,8 +27831,8 @@
         <v>33</v>
       </c>
       <c r="H452">
-        <f>IF(E452=$D$2,INT(G452/2.23)+F452,F452)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="J452">
         <v>62.649000000000001</v>
@@ -27882,8 +27882,8 @@
         <v>54</v>
       </c>
       <c r="H453">
-        <f>IF(E453=$D$2,INT(G453/2.23)+F453,F453)</f>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>28</v>
       </c>
       <c r="J453">
         <v>86.831999999999994</v>
@@ -27933,7 +27933,7 @@
         <v>53</v>
       </c>
       <c r="H454">
-        <f>IF(E454=$D$2,INT(G454/2.23)+F454,F454)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J454">
@@ -27984,7 +27984,7 @@
         <v>12</v>
       </c>
       <c r="H455">
-        <f>IF(E455=$D$2,INT(G455/2.23)+F455,F455)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J455">
@@ -28035,7 +28035,7 @@
         <v>79</v>
       </c>
       <c r="H456">
-        <f>IF(E456=$D$2,INT(G456/2.23)+F456,F456)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J456">
@@ -28086,7 +28086,7 @@
         <v>165</v>
       </c>
       <c r="H457">
-        <f>IF(E457=$D$2,INT(G457/2.23)+F457,F457)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J457">
@@ -28137,8 +28137,8 @@
         <v>75</v>
       </c>
       <c r="H458">
-        <f>IF(E458=$D$2,INT(G458/2.23)+F458,F458)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>35</v>
       </c>
       <c r="J458">
         <v>40.558999999999997</v>
@@ -28188,8 +28188,8 @@
         <v>26</v>
       </c>
       <c r="H459">
-        <f>IF(E459=$D$2,INT(G459/2.23)+F459,F459)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="J459">
         <v>53.506</v>
@@ -28239,8 +28239,8 @@
         <v>33</v>
       </c>
       <c r="H460">
-        <f>IF(E460=$D$2,INT(G460/2.23)+F460,F460)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
       <c r="J460">
         <v>68.754999999999995</v>
@@ -28290,8 +28290,8 @@
         <v>28</v>
       </c>
       <c r="H461">
-        <f>IF(E461=$D$2,INT(G461/2.23)+F461,F461)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="J461">
         <v>33.584000000000003</v>
@@ -28341,8 +28341,8 @@
         <v>27</v>
       </c>
       <c r="H462">
-        <f>IF(E462=$D$2,INT(G462/2.23)+F462,F462)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="J462">
         <v>56.622</v>
@@ -28392,8 +28392,8 @@
         <v>14</v>
       </c>
       <c r="H463">
-        <f>IF(E463=$D$2,INT(G463/2.23)+F463,F463)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="J463">
         <v>17.231999999999999</v>
@@ -28443,8 +28443,8 @@
         <v>74</v>
       </c>
       <c r="H464">
-        <f>IF(E464=$D$2,INT(G464/2.23)+F464,F464)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>34</v>
       </c>
       <c r="J464">
         <v>4.4619999999999997</v>
@@ -28494,8 +28494,8 @@
         <v>23</v>
       </c>
       <c r="H465">
-        <f>IF(E465=$D$2,INT(G465/2.23)+F465,F465)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="J465">
         <v>47.685000000000002</v>
@@ -28545,8 +28545,8 @@
         <v>32</v>
       </c>
       <c r="H466">
-        <f>IF(E466=$D$2,INT(G466/2.23)+F466,F466)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="J466">
         <v>66.816999999999993</v>
@@ -28596,8 +28596,8 @@
         <v>28</v>
       </c>
       <c r="H467">
-        <f>IF(E467=$D$2,INT(G467/2.23)+F467,F467)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="J467">
         <v>59.226999999999997</v>
@@ -28647,8 +28647,8 @@
         <v>27</v>
       </c>
       <c r="H468">
-        <f>IF(E468=$D$2,INT(G468/2.23)+F468,F468)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="J468">
         <v>56.115000000000002</v>
@@ -28698,8 +28698,8 @@
         <v>29</v>
       </c>
       <c r="H469">
-        <f>IF(E469=$D$2,INT(G469/2.23)+F469,F469)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="J469">
         <v>61.512</v>
@@ -28749,7 +28749,7 @@
         <v>30</v>
       </c>
       <c r="H470">
-        <f>IF(E470=$D$2,INT(G470/2.23)+F470,F470)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J470">
@@ -28800,7 +28800,7 @@
         <v>13</v>
       </c>
       <c r="H471">
-        <f>IF(E471=$D$2,INT(G471/2.23)+F471,F471)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J471">
@@ -28851,7 +28851,7 @@
         <v>22</v>
       </c>
       <c r="H472">
-        <f>IF(E472=$D$2,INT(G472/2.23)+F472,F472)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J472">
@@ -28902,7 +28902,7 @@
         <v>47</v>
       </c>
       <c r="H473">
-        <f>IF(E473=$D$2,INT(G473/2.23)+F473,F473)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J473">
@@ -28953,7 +28953,7 @@
         <v>34</v>
       </c>
       <c r="H474">
-        <f>IF(E474=$D$2,INT(G474/2.23)+F474,F474)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J474">
@@ -29004,7 +29004,7 @@
         <v>10</v>
       </c>
       <c r="H475">
-        <f>IF(E475=$D$2,INT(G475/2.23)+F475,F475)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J475">
@@ -29055,7 +29055,7 @@
         <v>14</v>
       </c>
       <c r="H476">
-        <f>IF(E476=$D$2,INT(G476/2.23)+F476,F476)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J476">
@@ -29106,7 +29106,7 @@
         <v>54</v>
       </c>
       <c r="H477">
-        <f>IF(E477=$D$2,INT(G477/2.23)+F477,F477)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J477">
@@ -29157,7 +29157,7 @@
         <v>121</v>
       </c>
       <c r="H478">
-        <f>IF(E478=$D$2,INT(G478/2.23)+F478,F478)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J478">
@@ -29208,7 +29208,7 @@
         <v>19</v>
       </c>
       <c r="H479">
-        <f>IF(E479=$D$2,INT(G479/2.23)+F479,F479)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J479">
@@ -29259,7 +29259,7 @@
         <v>51</v>
       </c>
       <c r="H480">
-        <f>IF(E480=$D$2,INT(G480/2.23)+F480,F480)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J480">
@@ -29310,7 +29310,7 @@
         <v>6</v>
       </c>
       <c r="H481">
-        <f>IF(E481=$D$2,INT(G481/2.23)+F481,F481)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J481">
@@ -29361,7 +29361,7 @@
         <v>13</v>
       </c>
       <c r="H482">
-        <f>IF(E482=$D$2,INT(G482/2.23)+F482,F482)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J482">
@@ -29412,7 +29412,7 @@
         <v>37</v>
       </c>
       <c r="H483">
-        <f>IF(E483=$D$2,INT(G483/2.23)+F483,F483)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J483">
@@ -29463,7 +29463,7 @@
         <v>8</v>
       </c>
       <c r="H484">
-        <f>IF(E484=$D$2,INT(G484/2.23)+F484,F484)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J484">
@@ -29514,7 +29514,7 @@
         <v>8</v>
       </c>
       <c r="H485">
-        <f>IF(E485=$D$2,INT(G485/2.23)+F485,F485)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J485">
@@ -29565,8 +29565,8 @@
         <v>42</v>
       </c>
       <c r="H486">
-        <f>IF(E486=$D$2,INT(G486/2.23)+F486,F486)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="J486">
         <v>88.646000000000001</v>
@@ -29616,8 +29616,8 @@
         <v>18</v>
       </c>
       <c r="H487">
-        <f>IF(E487=$D$2,INT(G487/2.23)+F487,F487)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="J487">
         <v>38.706000000000003</v>
@@ -29667,8 +29667,8 @@
         <v>28</v>
       </c>
       <c r="H488">
-        <f>IF(E488=$D$2,INT(G488/2.23)+F488,F488)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="J488">
         <v>58.414999999999999</v>
@@ -29718,8 +29718,8 @@
         <v>32</v>
       </c>
       <c r="H489">
-        <f>IF(E489=$D$2,INT(G489/2.23)+F489,F489)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="J489">
         <v>7.3209999999999997</v>
@@ -29769,8 +29769,8 @@
         <v>40</v>
       </c>
       <c r="H490">
-        <f>IF(E490=$D$2,INT(G490/2.23)+F490,F490)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
       <c r="J490">
         <v>83.674999999999997</v>
@@ -29820,8 +29820,8 @@
         <v>19</v>
       </c>
       <c r="H491">
-        <f>IF(E491=$D$2,INT(G491/2.23)+F491,F491)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="J491">
         <v>39.901000000000003</v>
@@ -29871,8 +29871,8 @@
         <v>16</v>
       </c>
       <c r="H492">
-        <f>IF(E492=$D$2,INT(G492/2.23)+F492,F492)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="J492">
         <v>33.784999999999997</v>
@@ -29922,8 +29922,8 @@
         <v>16</v>
       </c>
       <c r="H493">
-        <f>IF(E493=$D$2,INT(G493/2.23)+F493,F493)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="J493">
         <v>33.915999999999997</v>
@@ -29973,8 +29973,8 @@
         <v>23</v>
       </c>
       <c r="H494">
-        <f>IF(E494=$D$2,INT(G494/2.23)+F494,F494)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="J494">
         <v>28.632999999999999</v>
@@ -30024,8 +30024,8 @@
         <v>31</v>
       </c>
       <c r="H495">
-        <f>IF(E495=$D$2,INT(G495/2.23)+F495,F495)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
       <c r="J495">
         <v>64.736999999999995</v>
@@ -30075,8 +30075,8 @@
         <v>36</v>
       </c>
       <c r="H496">
-        <f>IF(E496=$D$2,INT(G496/2.23)+F496,F496)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="J496">
         <v>74.283000000000001</v>
@@ -30126,8 +30126,8 @@
         <v>20</v>
       </c>
       <c r="H497">
-        <f>IF(E497=$D$2,INT(G497/2.23)+F497,F497)</f>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="J497">
         <v>41.984000000000002</v>
@@ -30177,8 +30177,8 @@
         <v>25</v>
       </c>
       <c r="H498">
-        <f>IF(E498=$D$2,INT(G498/2.23)+F498,F498)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="J498">
         <v>51.488999999999997</v>
@@ -30228,8 +30228,8 @@
         <v>45</v>
       </c>
       <c r="H499">
-        <f>IF(E499=$D$2,INT(G499/2.23)+F499,F499)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="J499">
         <v>93.534000000000006</v>
@@ -30279,8 +30279,8 @@
         <v>24</v>
       </c>
       <c r="H500">
-        <f>IF(E500=$D$2,INT(G500/2.23)+F500,F500)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="J500">
         <v>50.360999999999997</v>
@@ -30330,8 +30330,8 @@
         <v>25</v>
       </c>
       <c r="H501">
-        <f>IF(E501=$D$2,INT(G501/2.23)+F501,F501)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="J501">
         <v>53.131999999999998</v>
@@ -30381,8 +30381,8 @@
         <v>39</v>
       </c>
       <c r="H502">
-        <f>IF(E502=$D$2,INT(G502/2.23)+F502,F502)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="J502">
         <v>82.477000000000004</v>
@@ -30432,8 +30432,8 @@
         <v>94</v>
       </c>
       <c r="H503">
-        <f>IF(E503=$D$2,INT(G503/2.23)+F503,F503)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>43</v>
       </c>
       <c r="J503">
         <v>54.195</v>
@@ -30483,8 +30483,8 @@
         <v>9</v>
       </c>
       <c r="H504">
-        <f>IF(E504=$D$2,INT(G504/2.23)+F504,F504)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="J504">
         <v>2.3180000000000001</v>
@@ -30534,8 +30534,8 @@
         <v>10</v>
       </c>
       <c r="H505">
-        <f>IF(E505=$D$2,INT(G505/2.23)+F505,F505)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="J505">
         <v>13.186</v>
@@ -30585,8 +30585,8 @@
         <v>14</v>
       </c>
       <c r="H506">
-        <f>IF(E506=$D$2,INT(G506/2.23)+F506,F506)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="J506">
         <v>46.284999999999997</v>
@@ -30636,8 +30636,8 @@
         <v>30</v>
       </c>
       <c r="H507">
-        <f>IF(E507=$D$2,INT(G507/2.23)+F507,F507)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="J507">
         <v>63.33</v>
@@ -30687,8 +30687,8 @@
         <v>28</v>
       </c>
       <c r="H508">
-        <f>IF(E508=$D$2,INT(G508/2.23)+F508,F508)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="J508">
         <v>58.125</v>
@@ -30738,8 +30738,8 @@
         <v>29</v>
       </c>
       <c r="H509">
-        <f>IF(E509=$D$2,INT(G509/2.23)+F509,F509)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="J509">
         <v>61.353999999999999</v>
@@ -30789,8 +30789,8 @@
         <v>24</v>
       </c>
       <c r="H510">
-        <f>IF(E510=$D$2,INT(G510/2.23)+F510,F510)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="J510">
         <v>50.296999999999997</v>
@@ -30840,8 +30840,8 @@
         <v>24</v>
       </c>
       <c r="H511">
-        <f>IF(E511=$D$2,INT(G511/2.23)+F511,F511)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>11</v>
       </c>
       <c r="J511">
         <v>49.866</v>
@@ -30891,8 +30891,8 @@
         <v>43</v>
       </c>
       <c r="H512">
-        <f>IF(E512=$D$2,INT(G512/2.23)+F512,F512)</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>21</v>
       </c>
       <c r="J512">
         <v>90.132000000000005</v>
@@ -30942,8 +30942,8 @@
         <v>14</v>
       </c>
       <c r="H513">
-        <f>IF(E513=$D$2,INT(G513/2.23)+F513,F513)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="J513">
         <v>28.898</v>
@@ -30993,8 +30993,8 @@
         <v>25</v>
       </c>
       <c r="H514">
-        <f>IF(E514=$D$2,INT(G514/2.23)+F514,F514)</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>12</v>
       </c>
       <c r="J514">
         <v>52.152000000000001</v>
@@ -31044,7 +31044,7 @@
         <v>77</v>
       </c>
       <c r="H515">
-        <f>IF(E515=$D$2,INT(G515/2.23)+F515,F515)</f>
+        <f t="shared" ref="H515:H578" si="8">IF(E515="Residential",INT(G515/2.23)+F515,F515)</f>
         <v>1</v>
       </c>
       <c r="J515">
@@ -31095,8 +31095,8 @@
         <v>12</v>
       </c>
       <c r="H516">
-        <f>IF(E516=$D$2,INT(G516/2.23)+F516,F516)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="J516">
         <v>25.457999999999998</v>
@@ -31146,8 +31146,8 @@
         <v>7</v>
       </c>
       <c r="H517">
-        <f>IF(E517=$D$2,INT(G517/2.23)+F517,F517)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="J517">
         <v>21.341000000000001</v>
@@ -31197,8 +31197,8 @@
         <v>179</v>
       </c>
       <c r="H518">
-        <f>IF(E518=$D$2,INT(G518/2.23)+F518,F518)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>81</v>
       </c>
       <c r="J518">
         <v>39.673999999999999</v>
@@ -31248,8 +31248,8 @@
         <v>4</v>
       </c>
       <c r="H519">
-        <f>IF(E519=$D$2,INT(G519/2.23)+F519,F519)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="J519">
         <v>12.891</v>
@@ -31299,8 +31299,8 @@
         <v>21</v>
       </c>
       <c r="H520">
-        <f>IF(E520=$D$2,INT(G520/2.23)+F520,F520)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
       <c r="J520">
         <v>43.201000000000001</v>
@@ -31350,8 +31350,8 @@
         <v>38</v>
       </c>
       <c r="H521">
-        <f>IF(E521=$D$2,INT(G521/2.23)+F521,F521)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
       <c r="J521">
         <v>80.233000000000004</v>
@@ -31401,8 +31401,8 @@
         <v>58</v>
       </c>
       <c r="H522">
-        <f>IF(E522=$D$2,INT(G522/2.23)+F522,F522)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
       <c r="J522">
         <v>33.381999999999998</v>
@@ -31452,8 +31452,8 @@
         <v>34</v>
       </c>
       <c r="H523">
-        <f>IF(E523=$D$2,INT(G523/2.23)+F523,F523)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>17</v>
       </c>
       <c r="J523">
         <v>71.471999999999994</v>
@@ -31503,8 +31503,8 @@
         <v>65</v>
       </c>
       <c r="H524">
-        <f>IF(E524=$D$2,INT(G524/2.23)+F524,F524)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="J524">
         <v>18.465</v>
@@ -31554,8 +31554,8 @@
         <v>49</v>
       </c>
       <c r="H525">
-        <f>IF(E525=$D$2,INT(G525/2.23)+F525,F525)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="J525">
         <v>39.920999999999999</v>
@@ -31605,8 +31605,8 @@
         <v>3</v>
       </c>
       <c r="H526">
-        <f>IF(E526=$D$2,INT(G526/2.23)+F526,F526)</f>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="J526">
         <v>2.9950000000000001</v>
@@ -31656,8 +31656,8 @@
         <v>19</v>
       </c>
       <c r="H527">
-        <f>IF(E527=$D$2,INT(G527/2.23)+F527,F527)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>9</v>
       </c>
       <c r="J527">
         <v>40.209000000000003</v>
@@ -31707,8 +31707,8 @@
         <v>22</v>
       </c>
       <c r="H528">
-        <f>IF(E528=$D$2,INT(G528/2.23)+F528,F528)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J528">
         <v>46.198999999999998</v>
@@ -31758,8 +31758,8 @@
         <v>5</v>
       </c>
       <c r="H529">
-        <f>IF(E529=$D$2,INT(G529/2.23)+F529,F529)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="J529">
         <v>15.291</v>
@@ -31809,8 +31809,8 @@
         <v>27</v>
       </c>
       <c r="H530">
-        <f>IF(E530=$D$2,INT(G530/2.23)+F530,F530)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="J530">
         <v>56.466000000000001</v>
@@ -31860,8 +31860,8 @@
         <v>33</v>
       </c>
       <c r="H531">
-        <f>IF(E531=$D$2,INT(G531/2.23)+F531,F531)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
       <c r="J531">
         <v>68.995000000000005</v>
@@ -31911,8 +31911,8 @@
         <v>33</v>
       </c>
       <c r="H532">
-        <f>IF(E532=$D$2,INT(G532/2.23)+F532,F532)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="J532">
         <v>68.364000000000004</v>
@@ -31962,8 +31962,8 @@
         <v>29</v>
       </c>
       <c r="H533">
-        <f>IF(E533=$D$2,INT(G533/2.23)+F533,F533)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="J533">
         <v>61.462000000000003</v>
@@ -32013,8 +32013,8 @@
         <v>24</v>
       </c>
       <c r="H534">
-        <f>IF(E534=$D$2,INT(G534/2.23)+F534,F534)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="J534">
         <v>49.180999999999997</v>
@@ -32064,8 +32064,8 @@
         <v>28</v>
       </c>
       <c r="H535">
-        <f>IF(E535=$D$2,INT(G535/2.23)+F535,F535)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
       <c r="J535">
         <v>57.948999999999998</v>
@@ -32115,8 +32115,8 @@
         <v>39</v>
       </c>
       <c r="H536">
-        <f>IF(E536=$D$2,INT(G536/2.23)+F536,F536)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>19</v>
       </c>
       <c r="J536">
         <v>41.003</v>
@@ -32166,8 +32166,8 @@
         <v>73</v>
       </c>
       <c r="H537">
-        <f>IF(E537=$D$2,INT(G537/2.23)+F537,F537)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>33</v>
       </c>
       <c r="J537">
         <v>42.741999999999997</v>
@@ -32217,8 +32217,8 @@
         <v>15</v>
       </c>
       <c r="H538">
-        <f>IF(E538=$D$2,INT(G538/2.23)+F538,F538)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="J538">
         <v>30.811</v>
@@ -32268,8 +32268,8 @@
         <v>31</v>
       </c>
       <c r="H539">
-        <f>IF(E539=$D$2,INT(G539/2.23)+F539,F539)</f>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>23</v>
       </c>
       <c r="J539">
         <v>98.382999999999996</v>
@@ -32319,8 +32319,8 @@
         <v>11</v>
       </c>
       <c r="H540">
-        <f>IF(E540=$D$2,INT(G540/2.23)+F540,F540)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="J540">
         <v>13.116</v>
@@ -32370,8 +32370,8 @@
         <v>32</v>
       </c>
       <c r="H541">
-        <f>IF(E541=$D$2,INT(G541/2.23)+F541,F541)</f>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>24</v>
       </c>
       <c r="J541">
         <v>99.441999999999993</v>
@@ -32421,8 +32421,8 @@
         <v>5</v>
       </c>
       <c r="H542">
-        <f>IF(E542=$D$2,INT(G542/2.23)+F542,F542)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="J542">
         <v>15.629</v>
@@ -32472,8 +32472,8 @@
         <v>47</v>
       </c>
       <c r="H543">
-        <f>IF(E543=$D$2,INT(G543/2.23)+F543,F543)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="J543">
         <v>98.033000000000001</v>
@@ -32523,8 +32523,8 @@
         <v>21</v>
       </c>
       <c r="H544">
-        <f>IF(E544=$D$2,INT(G544/2.23)+F544,F544)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
       <c r="J544">
         <v>48.134999999999998</v>
@@ -32574,8 +32574,8 @@
         <v>15</v>
       </c>
       <c r="H545">
-        <f>IF(E545=$D$2,INT(G545/2.23)+F545,F545)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="J545">
         <v>8.9710000000000001</v>
@@ -32625,8 +32625,8 @@
         <v>16</v>
       </c>
       <c r="H546">
-        <f>IF(E546=$D$2,INT(G546/2.23)+F546,F546)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="J546">
         <v>9.7880000000000003</v>
@@ -32676,8 +32676,8 @@
         <v>98</v>
       </c>
       <c r="H547">
-        <f>IF(E547=$D$2,INT(G547/2.23)+F547,F547)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>44</v>
       </c>
       <c r="J547">
         <v>55.31</v>
@@ -32727,8 +32727,8 @@
         <v>23</v>
       </c>
       <c r="H548">
-        <f>IF(E548=$D$2,INT(G548/2.23)+F548,F548)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
       <c r="J548">
         <v>73.447000000000003</v>
@@ -32778,8 +32778,8 @@
         <v>837</v>
       </c>
       <c r="H549">
-        <f>IF(E549=$D$2,INT(G549/2.23)+F549,F549)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>376</v>
       </c>
       <c r="J549">
         <v>55.289000000000001</v>
@@ -32829,8 +32829,8 @@
         <v>415</v>
       </c>
       <c r="H550">
-        <f>IF(E550=$D$2,INT(G550/2.23)+F550,F550)</f>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>189</v>
       </c>
       <c r="J550">
         <v>61.508000000000003</v>
@@ -32880,8 +32880,8 @@
         <v>15</v>
       </c>
       <c r="H551">
-        <f>IF(E551=$D$2,INT(G551/2.23)+F551,F551)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="J551">
         <v>8.25</v>
@@ -32931,8 +32931,8 @@
         <v>32</v>
       </c>
       <c r="H552">
-        <f>IF(E552=$D$2,INT(G552/2.23)+F552,F552)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="J552">
         <v>66.591999999999999</v>
@@ -32982,8 +32982,8 @@
         <v>17</v>
       </c>
       <c r="H553">
-        <f>IF(E553=$D$2,INT(G553/2.23)+F553,F553)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="J553">
         <v>54.558999999999997</v>
@@ -33033,8 +33033,8 @@
         <v>10</v>
       </c>
       <c r="H554">
-        <f>IF(E554=$D$2,INT(G554/2.23)+F554,F554)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="J554">
         <v>22.114000000000001</v>
@@ -33084,8 +33084,8 @@
         <v>34</v>
       </c>
       <c r="H555">
-        <f>IF(E555=$D$2,INT(G555/2.23)+F555,F555)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>17</v>
       </c>
       <c r="J555">
         <v>71.941999999999993</v>
@@ -33135,8 +33135,8 @@
         <v>252</v>
       </c>
       <c r="H556">
-        <f>IF(E556=$D$2,INT(G556/2.23)+F556,F556)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>114</v>
       </c>
       <c r="J556">
         <v>63.478000000000002</v>
@@ -33186,8 +33186,8 @@
         <v>9</v>
       </c>
       <c r="H557">
-        <f>IF(E557=$D$2,INT(G557/2.23)+F557,F557)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="J557">
         <v>19.434000000000001</v>
@@ -33237,8 +33237,8 @@
         <v>32</v>
       </c>
       <c r="H558">
-        <f>IF(E558=$D$2,INT(G558/2.23)+F558,F558)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
       <c r="J558">
         <v>66.97</v>
@@ -33288,8 +33288,8 @@
         <v>28</v>
       </c>
       <c r="H559">
-        <f>IF(E559=$D$2,INT(G559/2.23)+F559,F559)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
       <c r="J559">
         <v>59.405999999999999</v>
@@ -33339,8 +33339,8 @@
         <v>25</v>
       </c>
       <c r="H560">
-        <f>IF(E560=$D$2,INT(G560/2.23)+F560,F560)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="J560">
         <v>52.51</v>
@@ -33390,8 +33390,8 @@
         <v>581</v>
       </c>
       <c r="H561">
-        <f>IF(E561=$D$2,INT(G561/2.23)+F561,F561)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>261</v>
       </c>
       <c r="J561">
         <v>83.281999999999996</v>
@@ -33441,8 +33441,8 @@
         <v>39</v>
       </c>
       <c r="H562">
-        <f>IF(E562=$D$2,INT(G562/2.23)+F562,F562)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
       <c r="J562">
         <v>81.641999999999996</v>
@@ -33492,8 +33492,8 @@
         <v>25</v>
       </c>
       <c r="H563">
-        <f>IF(E563=$D$2,INT(G563/2.23)+F563,F563)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="J563">
         <v>51.402999999999999</v>
@@ -33543,8 +33543,8 @@
         <v>11</v>
       </c>
       <c r="H564">
-        <f>IF(E564=$D$2,INT(G564/2.23)+F564,F564)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="J564">
         <v>23.925999999999998</v>
@@ -33594,8 +33594,8 @@
         <v>28</v>
       </c>
       <c r="H565">
-        <f>IF(E565=$D$2,INT(G565/2.23)+F565,F565)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
       <c r="J565">
         <v>59.323</v>
@@ -33645,8 +33645,8 @@
         <v>25</v>
       </c>
       <c r="H566">
-        <f>IF(E566=$D$2,INT(G566/2.23)+F566,F566)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="J566">
         <v>52.704999999999998</v>
@@ -33696,8 +33696,8 @@
         <v>39</v>
       </c>
       <c r="H567">
-        <f>IF(E567=$D$2,INT(G567/2.23)+F567,F567)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>19</v>
       </c>
       <c r="J567">
         <v>82.123000000000005</v>
@@ -33747,8 +33747,8 @@
         <v>35</v>
       </c>
       <c r="H568">
-        <f>IF(E568=$D$2,INT(G568/2.23)+F568,F568)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
       <c r="J568">
         <v>73.540999999999997</v>
@@ -33798,8 +33798,8 @@
         <v>14</v>
       </c>
       <c r="H569">
-        <f>IF(E569=$D$2,INT(G569/2.23)+F569,F569)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>8</v>
       </c>
       <c r="J569">
         <v>35.585000000000001</v>
@@ -33849,8 +33849,8 @@
         <v>47</v>
       </c>
       <c r="H570">
-        <f>IF(E570=$D$2,INT(G570/2.23)+F570,F570)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>22</v>
       </c>
       <c r="J570">
         <v>97.38</v>
@@ -33900,8 +33900,8 @@
         <v>37</v>
       </c>
       <c r="H571">
-        <f>IF(E571=$D$2,INT(G571/2.23)+F571,F571)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>17</v>
       </c>
       <c r="J571">
         <v>77.617000000000004</v>
@@ -33951,8 +33951,8 @@
         <v>26</v>
       </c>
       <c r="H572">
-        <f>IF(E572=$D$2,INT(G572/2.23)+F572,F572)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="J572">
         <v>54.19</v>
@@ -34002,8 +34002,8 @@
         <v>28</v>
       </c>
       <c r="H573">
-        <f>IF(E573=$D$2,INT(G573/2.23)+F573,F573)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
       <c r="J573">
         <v>57.848999999999997</v>
@@ -34053,8 +34053,8 @@
         <v>29</v>
       </c>
       <c r="H574">
-        <f>IF(E574=$D$2,INT(G574/2.23)+F574,F574)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
       </c>
       <c r="J574">
         <v>61.496000000000002</v>
@@ -34104,8 +34104,8 @@
         <v>28</v>
       </c>
       <c r="H575">
-        <f>IF(E575=$D$2,INT(G575/2.23)+F575,F575)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
       <c r="J575">
         <v>58.600999999999999</v>
@@ -34155,8 +34155,8 @@
         <v>22</v>
       </c>
       <c r="H576">
-        <f>IF(E576=$D$2,INT(G576/2.23)+F576,F576)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="J576">
         <v>46.582999999999998</v>
@@ -34206,8 +34206,8 @@
         <v>24</v>
       </c>
       <c r="H577">
-        <f>IF(E577=$D$2,INT(G577/2.23)+F577,F577)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
       <c r="J577">
         <v>50.212000000000003</v>
@@ -34257,8 +34257,8 @@
         <v>59</v>
       </c>
       <c r="H578">
-        <f>IF(E578=$D$2,INT(G578/2.23)+F578,F578)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
       <c r="J578">
         <v>72.709000000000003</v>
@@ -34308,8 +34308,8 @@
         <v>21</v>
       </c>
       <c r="H579">
-        <f>IF(E579=$D$2,INT(G579/2.23)+F579,F579)</f>
-        <v>1</v>
+        <f t="shared" ref="H579:H642" si="9">IF(E579="Residential",INT(G579/2.23)+F579,F579)</f>
+        <v>10</v>
       </c>
       <c r="J579">
         <v>43.854999999999997</v>
@@ -34359,8 +34359,8 @@
         <v>30</v>
       </c>
       <c r="H580">
-        <f>IF(E580=$D$2,INT(G580/2.23)+F580,F580)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="J580">
         <v>62.168999999999997</v>
@@ -34410,8 +34410,8 @@
         <v>34</v>
       </c>
       <c r="H581">
-        <f>IF(E581=$D$2,INT(G581/2.23)+F581,F581)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="J581">
         <v>70.509</v>
@@ -34461,8 +34461,8 @@
         <v>30</v>
       </c>
       <c r="H582">
-        <f>IF(E582=$D$2,INT(G582/2.23)+F582,F582)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="J582">
         <v>63.451000000000001</v>
@@ -34512,8 +34512,8 @@
         <v>25</v>
       </c>
       <c r="H583">
-        <f>IF(E583=$D$2,INT(G583/2.23)+F583,F583)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="J583">
         <v>52.143999999999998</v>
@@ -34563,8 +34563,8 @@
         <v>18</v>
       </c>
       <c r="H584">
-        <f>IF(E584=$D$2,INT(G584/2.23)+F584,F584)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="J584">
         <v>37.994999999999997</v>
@@ -34614,8 +34614,8 @@
         <v>6</v>
       </c>
       <c r="H585">
-        <f>IF(E585=$D$2,INT(G585/2.23)+F585,F585)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="J585">
         <v>12.411</v>
@@ -34665,8 +34665,8 @@
         <v>32</v>
       </c>
       <c r="H586">
-        <f>IF(E586=$D$2,INT(G586/2.23)+F586,F586)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="J586">
         <v>66.807000000000002</v>
@@ -34716,8 +34716,8 @@
         <v>38</v>
       </c>
       <c r="H587">
-        <f>IF(E587=$D$2,INT(G587/2.23)+F587,F587)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="J587">
         <v>79.08</v>
@@ -34767,8 +34767,8 @@
         <v>18</v>
       </c>
       <c r="H588">
-        <f>IF(E588=$D$2,INT(G588/2.23)+F588,F588)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>9</v>
       </c>
       <c r="J588">
         <v>37.963000000000001</v>
@@ -34818,8 +34818,8 @@
         <v>38</v>
       </c>
       <c r="H589">
-        <f>IF(E589=$D$2,INT(G589/2.23)+F589,F589)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="J589">
         <v>79.209000000000003</v>
@@ -34869,8 +34869,8 @@
         <v>39</v>
       </c>
       <c r="H590">
-        <f>IF(E590=$D$2,INT(G590/2.23)+F590,F590)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>18</v>
       </c>
       <c r="J590">
         <v>81.213999999999999</v>
@@ -34920,8 +34920,8 @@
         <v>14</v>
       </c>
       <c r="H591">
-        <f>IF(E591=$D$2,INT(G591/2.23)+F591,F591)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="J591">
         <v>44.621000000000002</v>
@@ -34971,8 +34971,8 @@
         <v>147</v>
       </c>
       <c r="H592">
-        <f>IF(E592=$D$2,INT(G592/2.23)+F592,F592)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>66</v>
       </c>
       <c r="J592">
         <v>45.956000000000003</v>
@@ -35022,8 +35022,8 @@
         <v>32</v>
       </c>
       <c r="H593">
-        <f>IF(E593=$D$2,INT(G593/2.23)+F593,F593)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="J593">
         <v>18.050999999999998</v>
@@ -35073,8 +35073,8 @@
         <v>32</v>
       </c>
       <c r="H594">
-        <f>IF(E594=$D$2,INT(G594/2.23)+F594,F594)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="J594">
         <v>41.039000000000001</v>
@@ -35124,8 +35124,8 @@
         <v>39</v>
       </c>
       <c r="H595">
-        <f>IF(E595=$D$2,INT(G595/2.23)+F595,F595)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>18</v>
       </c>
       <c r="J595">
         <v>81.031000000000006</v>
@@ -35175,8 +35175,8 @@
         <v>23</v>
       </c>
       <c r="H596">
-        <f>IF(E596=$D$2,INT(G596/2.23)+F596,F596)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="J596">
         <v>48.823</v>
@@ -35226,8 +35226,8 @@
         <v>42</v>
       </c>
       <c r="H597">
-        <f>IF(E597=$D$2,INT(G597/2.23)+F597,F597)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="J597">
         <v>88.626000000000005</v>
@@ -35277,8 +35277,8 @@
         <v>25</v>
       </c>
       <c r="H598">
-        <f>IF(E598=$D$2,INT(G598/2.23)+F598,F598)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="J598">
         <v>52.314999999999998</v>
@@ -35328,8 +35328,8 @@
         <v>21</v>
       </c>
       <c r="H599">
-        <f>IF(E599=$D$2,INT(G599/2.23)+F599,F599)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J599">
         <v>44.396999999999998</v>
@@ -35379,8 +35379,8 @@
         <v>15</v>
       </c>
       <c r="H600">
-        <f>IF(E600=$D$2,INT(G600/2.23)+F600,F600)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="J600">
         <v>18.329000000000001</v>
@@ -35430,8 +35430,8 @@
         <v>34</v>
       </c>
       <c r="H601">
-        <f>IF(E601=$D$2,INT(G601/2.23)+F601,F601)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="J601">
         <v>29.277000000000001</v>
@@ -35481,8 +35481,8 @@
         <v>16</v>
       </c>
       <c r="H602">
-        <f>IF(E602=$D$2,INT(G602/2.23)+F602,F602)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="J602">
         <v>34.222999999999999</v>
@@ -35532,8 +35532,8 @@
         <v>23</v>
       </c>
       <c r="H603">
-        <f>IF(E603=$D$2,INT(G603/2.23)+F603,F603)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="J603">
         <v>47.726999999999997</v>
@@ -35583,7 +35583,7 @@
         <v>2</v>
       </c>
       <c r="H604">
-        <f>IF(E604=$D$2,INT(G604/2.23)+F604,F604)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J604">
@@ -35634,8 +35634,8 @@
         <v>12</v>
       </c>
       <c r="H605">
-        <f>IF(E605=$D$2,INT(G605/2.23)+F605,F605)</f>
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="J605">
         <v>39.076000000000001</v>
@@ -35685,7 +35685,7 @@
         <v>36</v>
       </c>
       <c r="H606">
-        <f>IF(E606=$D$2,INT(G606/2.23)+F606,F606)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J606">
@@ -35736,7 +35736,7 @@
         <v>18</v>
       </c>
       <c r="H607">
-        <f>IF(E607=$D$2,INT(G607/2.23)+F607,F607)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J607">
@@ -35787,7 +35787,7 @@
         <v>157</v>
       </c>
       <c r="H608">
-        <f>IF(E608=$D$2,INT(G608/2.23)+F608,F608)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J608">
@@ -35838,8 +35838,8 @@
         <v>202</v>
       </c>
       <c r="H609">
-        <f>IF(E609=$D$2,INT(G609/2.23)+F609,F609)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>91</v>
       </c>
       <c r="J609">
         <v>13.496</v>
@@ -35889,7 +35889,7 @@
         <v>30</v>
       </c>
       <c r="H610">
-        <f>IF(E610=$D$2,INT(G610/2.23)+F610,F610)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="J610">
@@ -35940,7 +35940,7 @@
         <v>39</v>
       </c>
       <c r="H611">
-        <f>IF(E611=$D$2,INT(G611/2.23)+F611,F611)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J611">
@@ -35991,7 +35991,7 @@
         <v>8</v>
       </c>
       <c r="H612">
-        <f>IF(E612=$D$2,INT(G612/2.23)+F612,F612)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J612">
@@ -36042,7 +36042,7 @@
         <v>15</v>
       </c>
       <c r="H613">
-        <f>IF(E613=$D$2,INT(G613/2.23)+F613,F613)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J613">
@@ -36093,7 +36093,7 @@
         <v>12</v>
       </c>
       <c r="H614">
-        <f>IF(E614=$D$2,INT(G614/2.23)+F614,F614)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J614">
@@ -36144,8 +36144,8 @@
         <v>35</v>
       </c>
       <c r="H615">
-        <f>IF(E615=$D$2,INT(G615/2.23)+F615,F615)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="J615">
         <v>73.602000000000004</v>
@@ -36195,7 +36195,7 @@
         <v>9</v>
       </c>
       <c r="H616">
-        <f>IF(E616=$D$2,INT(G616/2.23)+F616,F616)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J616">
@@ -36246,7 +36246,7 @@
         <v>4</v>
       </c>
       <c r="H617">
-        <f>IF(E617=$D$2,INT(G617/2.23)+F617,F617)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J617">
@@ -36297,7 +36297,7 @@
         <v>33</v>
       </c>
       <c r="H618">
-        <f>IF(E618=$D$2,INT(G618/2.23)+F618,F618)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J618">
@@ -36348,7 +36348,7 @@
         <v>17</v>
       </c>
       <c r="H619">
-        <f>IF(E619=$D$2,INT(G619/2.23)+F619,F619)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J619">
@@ -36399,7 +36399,7 @@
         <v>13</v>
       </c>
       <c r="H620">
-        <f>IF(E620=$D$2,INT(G620/2.23)+F620,F620)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J620">
@@ -36450,7 +36450,7 @@
         <v>28</v>
       </c>
       <c r="H621">
-        <f>IF(E621=$D$2,INT(G621/2.23)+F621,F621)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J621">
@@ -36501,7 +36501,7 @@
         <v>3</v>
       </c>
       <c r="H622">
-        <f>IF(E622=$D$2,INT(G622/2.23)+F622,F622)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J622">
@@ -36552,7 +36552,7 @@
         <v>44</v>
       </c>
       <c r="H623">
-        <f>IF(E623=$D$2,INT(G623/2.23)+F623,F623)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J623">
@@ -36603,7 +36603,7 @@
         <v>36</v>
       </c>
       <c r="H624">
-        <f>IF(E624=$D$2,INT(G624/2.23)+F624,F624)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J624">
@@ -36654,8 +36654,8 @@
         <v>12</v>
       </c>
       <c r="H625">
-        <f>IF(E625=$D$2,INT(G625/2.23)+F625,F625)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="J625">
         <v>25.46</v>
@@ -36705,8 +36705,8 @@
         <v>39</v>
       </c>
       <c r="H626">
-        <f>IF(E626=$D$2,INT(G626/2.23)+F626,F626)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="J626">
         <v>81.908000000000001</v>
@@ -36756,8 +36756,8 @@
         <v>15</v>
       </c>
       <c r="H627">
-        <f>IF(E627=$D$2,INT(G627/2.23)+F627,F627)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="J627">
         <v>19.016999999999999</v>
@@ -36807,8 +36807,8 @@
         <v>28</v>
       </c>
       <c r="H628">
-        <f>IF(E628=$D$2,INT(G628/2.23)+F628,F628)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="J628">
         <v>8.4130000000000003</v>
@@ -36858,8 +36858,8 @@
         <v>28</v>
       </c>
       <c r="H629">
-        <f>IF(E629=$D$2,INT(G629/2.23)+F629,F629)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="J629">
         <v>58.17</v>
@@ -36909,8 +36909,8 @@
         <v>21</v>
       </c>
       <c r="H630">
-        <f>IF(E630=$D$2,INT(G630/2.23)+F630,F630)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J630">
         <v>43.029000000000003</v>
@@ -36960,8 +36960,8 @@
         <v>21</v>
       </c>
       <c r="H631">
-        <f>IF(E631=$D$2,INT(G631/2.23)+F631,F631)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>11</v>
       </c>
       <c r="J631">
         <v>43.628999999999998</v>
@@ -37011,8 +37011,8 @@
         <v>3</v>
       </c>
       <c r="H632">
-        <f>IF(E632=$D$2,INT(G632/2.23)+F632,F632)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="J632">
         <v>2.8159999999999998</v>
@@ -37062,8 +37062,8 @@
         <v>7</v>
       </c>
       <c r="H633">
-        <f>IF(E633=$D$2,INT(G633/2.23)+F633,F633)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="J633">
         <v>4.43</v>
@@ -37113,8 +37113,8 @@
         <v>14</v>
       </c>
       <c r="H634">
-        <f>IF(E634=$D$2,INT(G634/2.23)+F634,F634)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="J634">
         <v>30.311</v>
@@ -37164,8 +37164,8 @@
         <v>23</v>
       </c>
       <c r="H635">
-        <f>IF(E635=$D$2,INT(G635/2.23)+F635,F635)</f>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="J635">
         <v>46.192</v>
@@ -37215,8 +37215,8 @@
         <v>4</v>
       </c>
       <c r="H636">
-        <f>IF(E636=$D$2,INT(G636/2.23)+F636,F636)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="J636">
         <v>11.031000000000001</v>
@@ -37266,8 +37266,8 @@
         <v>35</v>
       </c>
       <c r="H637">
-        <f>IF(E637=$D$2,INT(G637/2.23)+F637,F637)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="J637">
         <v>43.396999999999998</v>
@@ -37317,8 +37317,8 @@
         <v>44</v>
       </c>
       <c r="H638">
-        <f>IF(E638=$D$2,INT(G638/2.23)+F638,F638)</f>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>24</v>
       </c>
       <c r="J638">
         <v>46.284999999999997</v>
@@ -37368,7 +37368,7 @@
         <v>1</v>
       </c>
       <c r="H639">
-        <f>IF(E639=$D$2,INT(G639/2.23)+F639,F639)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J639">
@@ -37419,8 +37419,8 @@
         <v>27</v>
       </c>
       <c r="H640">
-        <f>IF(E640=$D$2,INT(G640/2.23)+F640,F640)</f>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>21</v>
       </c>
       <c r="J640">
         <v>85.424000000000007</v>
@@ -37470,8 +37470,8 @@
         <v>22</v>
       </c>
       <c r="H641">
-        <f>IF(E641=$D$2,INT(G641/2.23)+F641,F641)</f>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="J641">
         <v>67.742000000000004</v>
@@ -37521,8 +37521,8 @@
         <v>22</v>
       </c>
       <c r="H642">
-        <f>IF(E642=$D$2,INT(G642/2.23)+F642,F642)</f>
-        <v>6</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="J642">
         <v>69.584000000000003</v>
@@ -37572,8 +37572,8 @@
         <v>32</v>
       </c>
       <c r="H643">
-        <f>IF(E643=$D$2,INT(G643/2.23)+F643,F643)</f>
-        <v>9</v>
+        <f t="shared" ref="H643:H706" si="10">IF(E643="Residential",INT(G643/2.23)+F643,F643)</f>
+        <v>23</v>
       </c>
       <c r="J643">
         <v>99.73</v>
@@ -37623,8 +37623,8 @@
         <v>28</v>
       </c>
       <c r="H644">
-        <f>IF(E644=$D$2,INT(G644/2.23)+F644,F644)</f>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>21</v>
       </c>
       <c r="J644">
         <v>87.741</v>
@@ -37674,8 +37674,8 @@
         <v>30</v>
       </c>
       <c r="H645">
-        <f>IF(E645=$D$2,INT(G645/2.23)+F645,F645)</f>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>22</v>
       </c>
       <c r="J645">
         <v>94.807000000000002</v>
@@ -37725,8 +37725,8 @@
         <v>26</v>
       </c>
       <c r="H646">
-        <f>IF(E646=$D$2,INT(G646/2.23)+F646,F646)</f>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>17</v>
       </c>
       <c r="J646">
         <v>81.460999999999999</v>
@@ -37776,8 +37776,8 @@
         <v>24</v>
       </c>
       <c r="H647">
-        <f>IF(E647=$D$2,INT(G647/2.23)+F647,F647)</f>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="J647">
         <v>74.304000000000002</v>
@@ -37827,8 +37827,8 @@
         <v>27</v>
       </c>
       <c r="H648">
-        <f>IF(E648=$D$2,INT(G648/2.23)+F648,F648)</f>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>21</v>
       </c>
       <c r="J648">
         <v>85.236999999999995</v>
@@ -37878,7 +37878,7 @@
         <v>38</v>
       </c>
       <c r="H649">
-        <f>IF(E649=$D$2,INT(G649/2.23)+F649,F649)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J649">
@@ -37929,7 +37929,7 @@
         <v>11</v>
       </c>
       <c r="H650">
-        <f>IF(E650=$D$2,INT(G650/2.23)+F650,F650)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J650">
@@ -37980,7 +37980,7 @@
         <v>22</v>
       </c>
       <c r="H651">
-        <f>IF(E651=$D$2,INT(G651/2.23)+F651,F651)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J651">
@@ -38031,7 +38031,7 @@
         <v>55</v>
       </c>
       <c r="H652">
-        <f>IF(E652=$D$2,INT(G652/2.23)+F652,F652)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J652">
@@ -38082,7 +38082,7 @@
         <v>5</v>
       </c>
       <c r="H653">
-        <f>IF(E653=$D$2,INT(G653/2.23)+F653,F653)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J653">
@@ -38133,8 +38133,8 @@
         <v>42</v>
       </c>
       <c r="H654">
-        <f>IF(E654=$D$2,INT(G654/2.23)+F654,F654)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>19</v>
       </c>
       <c r="J654">
         <v>87.727000000000004</v>
@@ -38184,8 +38184,8 @@
         <v>40</v>
       </c>
       <c r="H655">
-        <f>IF(E655=$D$2,INT(G655/2.23)+F655,F655)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="J655">
         <v>83.269000000000005</v>
@@ -38235,7 +38235,7 @@
         <v>5</v>
       </c>
       <c r="H656">
-        <f>IF(E656=$D$2,INT(G656/2.23)+F656,F656)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J656">
@@ -38286,7 +38286,7 @@
         <v>55</v>
       </c>
       <c r="H657">
-        <f>IF(E657=$D$2,INT(G657/2.23)+F657,F657)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J657">
@@ -38337,7 +38337,7 @@
         <v>41</v>
       </c>
       <c r="H658">
-        <f>IF(E658=$D$2,INT(G658/2.23)+F658,F658)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J658">
@@ -38388,7 +38388,7 @@
         <v>15</v>
       </c>
       <c r="H659">
-        <f>IF(E659=$D$2,INT(G659/2.23)+F659,F659)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J659">
@@ -38439,7 +38439,7 @@
         <v>36</v>
       </c>
       <c r="H660">
-        <f>IF(E660=$D$2,INT(G660/2.23)+F660,F660)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J660">
@@ -38490,7 +38490,7 @@
         <v>7</v>
       </c>
       <c r="H661">
-        <f>IF(E661=$D$2,INT(G661/2.23)+F661,F661)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J661">
@@ -38540,9 +38540,9 @@
       <c r="G662" s="1">
         <v>31</v>
       </c>
-      <c r="H662" s="1">
-        <f>IF(E662=$D$2,INT(G662/2.23)+F662,F662)</f>
-        <v>11</v>
+      <c r="H662">
+        <f t="shared" si="10"/>
+        <v>24</v>
       </c>
       <c r="J662" s="1">
         <v>96.307000000000002</v>
@@ -38591,9 +38591,9 @@
       <c r="G663" s="1">
         <v>27</v>
       </c>
-      <c r="H663" s="1">
-        <f>IF(E663=$D$2,INT(G663/2.23)+F663,F663)</f>
-        <v>10</v>
+      <c r="H663">
+        <f t="shared" si="10"/>
+        <v>22</v>
       </c>
       <c r="J663" s="1">
         <v>85.569000000000003</v>
@@ -38643,8 +38643,8 @@
         <v>9</v>
       </c>
       <c r="H664">
-        <f>IF(E664=$D$2,INT(G664/2.23)+F664,F664)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="J664">
         <v>26.983000000000001</v>
@@ -38694,8 +38694,8 @@
         <v>46</v>
       </c>
       <c r="H665">
-        <f>IF(E665=$D$2,INT(G665/2.23)+F665,F665)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>21</v>
       </c>
       <c r="J665">
         <v>9.4550000000000001</v>
@@ -38745,8 +38745,8 @@
         <v>26</v>
       </c>
       <c r="H666">
-        <f>IF(E666=$D$2,INT(G666/2.23)+F666,F666)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="J666">
         <v>55.01</v>
@@ -38796,8 +38796,8 @@
         <v>45</v>
       </c>
       <c r="H667">
-        <f>IF(E667=$D$2,INT(G667/2.23)+F667,F667)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>21</v>
       </c>
       <c r="J667">
         <v>94.44</v>
@@ -38847,8 +38847,8 @@
         <v>14</v>
       </c>
       <c r="H668">
-        <f>IF(E668=$D$2,INT(G668/2.23)+F668,F668)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="J668">
         <v>11.593999999999999</v>
@@ -38898,8 +38898,8 @@
         <v>6</v>
       </c>
       <c r="H669">
-        <f>IF(E669=$D$2,INT(G669/2.23)+F669,F669)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="J669">
         <v>7.7149999999999999</v>
@@ -38949,8 +38949,8 @@
         <v>21</v>
       </c>
       <c r="H670">
-        <f>IF(E670=$D$2,INT(G670/2.23)+F670,F670)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="J670">
         <v>43.911000000000001</v>
@@ -39000,8 +39000,8 @@
         <v>9</v>
       </c>
       <c r="H671">
-        <f>IF(E671=$D$2,INT(G671/2.23)+F671,F671)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="J671">
         <v>10.602</v>
@@ -39051,8 +39051,8 @@
         <v>96</v>
       </c>
       <c r="H672">
-        <f>IF(E672=$D$2,INT(G672/2.23)+F672,F672)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>45</v>
       </c>
       <c r="J672">
         <v>77.614999999999995</v>
@@ -39102,8 +39102,8 @@
         <v>8</v>
       </c>
       <c r="H673">
-        <f>IF(E673=$D$2,INT(G673/2.23)+F673,F673)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="J673">
         <v>16.231999999999999</v>
@@ -39153,8 +39153,8 @@
         <v>6</v>
       </c>
       <c r="H674">
-        <f>IF(E674=$D$2,INT(G674/2.23)+F674,F674)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="J674">
         <v>7.2290000000000001</v>
@@ -39204,8 +39204,8 @@
         <v>14</v>
       </c>
       <c r="H675">
-        <f>IF(E675=$D$2,INT(G675/2.23)+F675,F675)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="J675">
         <v>29.305</v>
@@ -39255,8 +39255,8 @@
         <v>65</v>
       </c>
       <c r="H676">
-        <f>IF(E676=$D$2,INT(G676/2.23)+F676,F676)</f>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>32</v>
       </c>
       <c r="J676">
         <v>82.387</v>
@@ -39306,8 +39306,8 @@
         <v>23</v>
       </c>
       <c r="H677">
-        <f>IF(E677=$D$2,INT(G677/2.23)+F677,F677)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="J677">
         <v>48.603999999999999</v>
@@ -39357,7 +39357,7 @@
         <v>37</v>
       </c>
       <c r="H678">
-        <f>IF(E678=$D$2,INT(G678/2.23)+F678,F678)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J678">
@@ -39408,7 +39408,7 @@
         <v>22</v>
       </c>
       <c r="H679">
-        <f>IF(E679=$D$2,INT(G679/2.23)+F679,F679)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J679">
@@ -39459,7 +39459,7 @@
         <v>8</v>
       </c>
       <c r="H680">
-        <f>IF(E680=$D$2,INT(G680/2.23)+F680,F680)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J680">
@@ -39510,8 +39510,8 @@
         <v>6</v>
       </c>
       <c r="H681">
-        <f>IF(E681=$D$2,INT(G681/2.23)+F681,F681)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="J681">
         <v>12.468</v>
@@ -39561,8 +39561,8 @@
         <v>46</v>
       </c>
       <c r="H682">
-        <f>IF(E682=$D$2,INT(G682/2.23)+F682,F682)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>21</v>
       </c>
       <c r="J682">
         <v>57.573</v>
@@ -39612,8 +39612,8 @@
         <v>15</v>
       </c>
       <c r="H683">
-        <f>IF(E683=$D$2,INT(G683/2.23)+F683,F683)</f>
-        <v>3</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="J683">
         <v>40.615000000000002</v>
@@ -39663,8 +39663,8 @@
         <v>4</v>
       </c>
       <c r="H684">
-        <f>IF(E684=$D$2,INT(G684/2.23)+F684,F684)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="J684">
         <v>4.4640000000000004</v>
@@ -39714,8 +39714,8 @@
         <v>31</v>
       </c>
       <c r="H685">
-        <f>IF(E685=$D$2,INT(G685/2.23)+F685,F685)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>14</v>
       </c>
       <c r="J685">
         <v>64.468000000000004</v>
@@ -39765,8 +39765,8 @@
         <v>9</v>
       </c>
       <c r="H686">
-        <f>IF(E686=$D$2,INT(G686/2.23)+F686,F686)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="J686">
         <v>27.98</v>
@@ -39816,8 +39816,8 @@
         <v>9</v>
       </c>
       <c r="H687">
-        <f>IF(E687=$D$2,INT(G687/2.23)+F687,F687)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="J687">
         <v>27.971</v>
@@ -39867,8 +39867,8 @@
         <v>9</v>
       </c>
       <c r="H688">
-        <f>IF(E688=$D$2,INT(G688/2.23)+F688,F688)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="J688">
         <v>27.984999999999999</v>
@@ -39918,8 +39918,8 @@
         <v>17</v>
       </c>
       <c r="H689">
-        <f>IF(E689=$D$2,INT(G689/2.23)+F689,F689)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="J689">
         <v>52.908999999999999</v>
@@ -39969,8 +39969,8 @@
         <v>16</v>
       </c>
       <c r="H690">
-        <f>IF(E690=$D$2,INT(G690/2.23)+F690,F690)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="J690">
         <v>50.143000000000001</v>
@@ -40020,8 +40020,8 @@
         <v>43</v>
       </c>
       <c r="H691">
-        <f>IF(E691=$D$2,INT(G691/2.23)+F691,F691)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="J691">
         <v>90.024000000000001</v>
@@ -40071,8 +40071,8 @@
         <v>16</v>
       </c>
       <c r="H692">
-        <f>IF(E692=$D$2,INT(G692/2.23)+F692,F692)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="J692">
         <v>32.487000000000002</v>
@@ -40122,8 +40122,8 @@
         <v>33</v>
       </c>
       <c r="H693">
-        <f>IF(E693=$D$2,INT(G693/2.23)+F693,F693)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="J693">
         <v>18.044</v>
@@ -40173,8 +40173,8 @@
         <v>25</v>
       </c>
       <c r="H694">
-        <f>IF(E694=$D$2,INT(G694/2.23)+F694,F694)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="J694">
         <v>53.128</v>
@@ -40224,8 +40224,8 @@
         <v>16</v>
       </c>
       <c r="H695">
-        <f>IF(E695=$D$2,INT(G695/2.23)+F695,F695)</f>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="J695">
         <v>50.558</v>
@@ -40275,8 +40275,8 @@
         <v>11</v>
       </c>
       <c r="H696">
-        <f>IF(E696=$D$2,INT(G696/2.23)+F696,F696)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="J696">
         <v>14.15</v>
@@ -40326,8 +40326,8 @@
         <v>32</v>
       </c>
       <c r="H697">
-        <f>IF(E697=$D$2,INT(G697/2.23)+F697,F697)</f>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>19</v>
       </c>
       <c r="J697">
         <v>78.924999999999997</v>
@@ -40377,8 +40377,8 @@
         <v>31</v>
       </c>
       <c r="H698">
-        <f>IF(E698=$D$2,INT(G698/2.23)+F698,F698)</f>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="J698">
         <v>78.8</v>
@@ -40428,8 +40428,8 @@
         <v>31</v>
       </c>
       <c r="H699">
-        <f>IF(E699=$D$2,INT(G699/2.23)+F699,F699)</f>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="J699">
         <v>78.793999999999997</v>
@@ -40479,8 +40479,8 @@
         <v>31</v>
       </c>
       <c r="H700">
-        <f>IF(E700=$D$2,INT(G700/2.23)+F700,F700)</f>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="J700">
         <v>78.814999999999998</v>
@@ -40530,8 +40530,8 @@
         <v>30</v>
       </c>
       <c r="H701">
-        <f>IF(E701=$D$2,INT(G701/2.23)+F701,F701)</f>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>18</v>
       </c>
       <c r="J701">
         <v>77.754999999999995</v>
@@ -40581,8 +40581,8 @@
         <v>16</v>
       </c>
       <c r="H702">
-        <f>IF(E702=$D$2,INT(G702/2.23)+F702,F702)</f>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="J702">
         <v>49.488</v>
@@ -40632,8 +40632,8 @@
         <v>16</v>
       </c>
       <c r="H703">
-        <f>IF(E703=$D$2,INT(G703/2.23)+F703,F703)</f>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="J703">
         <v>51.081000000000003</v>
@@ -40683,8 +40683,8 @@
         <v>16</v>
       </c>
       <c r="H704">
-        <f>IF(E704=$D$2,INT(G704/2.23)+F704,F704)</f>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="J704">
         <v>51.063000000000002</v>
@@ -40734,8 +40734,8 @@
         <v>16</v>
       </c>
       <c r="H705">
-        <f>IF(E705=$D$2,INT(G705/2.23)+F705,F705)</f>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="J705">
         <v>51.093000000000004</v>
@@ -40785,8 +40785,8 @@
         <v>3</v>
       </c>
       <c r="H706">
-        <f>IF(E706=$D$2,INT(G706/2.23)+F706,F706)</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="J706">
         <v>4.0629999999999997</v>
@@ -40836,8 +40836,8 @@
         <v>44</v>
       </c>
       <c r="H707">
-        <f>IF(E707=$D$2,INT(G707/2.23)+F707,F707)</f>
-        <v>1</v>
+        <f t="shared" ref="H707:H717" si="11">IF(E707="Residential",INT(G707/2.23)+F707,F707)</f>
+        <v>20</v>
       </c>
       <c r="J707">
         <v>9.9459999999999997</v>
@@ -40887,7 +40887,7 @@
         <v>38</v>
       </c>
       <c r="H708">
-        <f>IF(E708=$D$2,INT(G708/2.23)+F708,F708)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J708">
@@ -40938,7 +40938,7 @@
         <v>28</v>
       </c>
       <c r="H709">
-        <f>IF(E709=$D$2,INT(G709/2.23)+F709,F709)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J709">
@@ -40989,7 +40989,7 @@
         <v>2</v>
       </c>
       <c r="H710">
-        <f>IF(E710=$D$2,INT(G710/2.23)+F710,F710)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J710">
@@ -41040,7 +41040,7 @@
         <v>1</v>
       </c>
       <c r="H711">
-        <f>IF(E711=$D$2,INT(G711/2.23)+F711,F711)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J711">
@@ -41091,7 +41091,7 @@
         <v>9</v>
       </c>
       <c r="H712">
-        <f>IF(E712=$D$2,INT(G712/2.23)+F712,F712)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J712">
@@ -41142,7 +41142,7 @@
         <v>40</v>
       </c>
       <c r="H713">
-        <f>IF(E713=$D$2,INT(G713/2.23)+F713,F713)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J713">
@@ -41193,7 +41193,7 @@
         <v>1</v>
       </c>
       <c r="H714">
-        <f>IF(E714=$D$2,INT(G714/2.23)+F714,F714)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J714">
@@ -41244,7 +41244,7 @@
         <v>47</v>
       </c>
       <c r="H715">
-        <f>IF(E715=$D$2,INT(G715/2.23)+F715,F715)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J715">
@@ -41295,8 +41295,8 @@
         <v>49</v>
       </c>
       <c r="H716">
-        <f>IF(E716=$D$2,INT(G716/2.23)+F716,F716)</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>22</v>
       </c>
       <c r="J716">
         <v>40.878999999999998</v>
@@ -41346,8 +41346,8 @@
         <v>32</v>
       </c>
       <c r="H717">
-        <f>IF(E717=$D$2,INT(G717/2.23)+F717,F717)</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="J717">
         <v>67.137</v>
